--- a/documents/schedule_subjects.xlsx
+++ b/documents/schedule_subjects.xlsx
@@ -1094,21 +1094,21 @@
       </c>
       <c r="P5" s="15" t="inlineStr">
         <is>
-          <t>5B 5gas_fry</t>
+          <t>3C 3hot</t>
         </is>
       </c>
       <c r="Q5" s="15" t="inlineStr">
         <is>
-          <t>fry</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="R5" s="15" t="inlineStr">
         <is>
-          <t>JT</t>
+          <t>KY</t>
         </is>
       </c>
       <c r="S5" s="16" t="n">
-        <v>115</v>
+        <v>207</v>
       </c>
       <c r="T5" s="15" t="inlineStr">
         <is>
@@ -1179,21 +1179,21 @@
       </c>
       <c r="P6" s="15" t="inlineStr">
         <is>
-          <t>3C 3hot</t>
+          <t>5B 5gas_fry</t>
         </is>
       </c>
       <c r="Q6" s="15" t="inlineStr">
         <is>
-          <t>hot</t>
+          <t>fry</t>
         </is>
       </c>
       <c r="R6" s="15" t="inlineStr">
         <is>
-          <t>KY</t>
+          <t>JT</t>
         </is>
       </c>
       <c r="S6" s="16" t="n">
-        <v>207</v>
+        <v>115</v>
       </c>
       <c r="T6" s="15" t="inlineStr">
         <is>
@@ -1226,57 +1226,57 @@
       </c>
       <c r="D7" s="17" t="inlineStr">
         <is>
-          <t>3C 3hot</t>
+          <t>1d 1wz</t>
         </is>
       </c>
       <c r="E7" s="17" t="inlineStr">
         <is>
+          <t>j2</t>
+        </is>
+      </c>
+      <c r="F7" s="17" t="inlineStr">
+        <is>
+          <t>PJ</t>
+        </is>
+      </c>
+      <c r="G7" s="18" t="n">
+        <v>210</v>
+      </c>
+      <c r="H7" s="17" t="inlineStr">
+        <is>
+          <t>4B 4gas_fry</t>
+        </is>
+      </c>
+      <c r="I7" s="17" t="inlineStr">
+        <is>
+          <t>gas</t>
+        </is>
+      </c>
+      <c r="J7" s="17" t="inlineStr">
+        <is>
+          <t>KY</t>
+        </is>
+      </c>
+      <c r="K7" s="18" t="n">
+        <v>207</v>
+      </c>
+      <c r="L7" s="17" t="inlineStr">
+        <is>
+          <t>2C 2hot</t>
+        </is>
+      </c>
+      <c r="M7" s="17" t="inlineStr">
+        <is>
           <t>hot</t>
         </is>
       </c>
-      <c r="F7" s="17" t="inlineStr">
-        <is>
-          <t>KY</t>
-        </is>
-      </c>
-      <c r="G7" s="18" t="n">
-        <v>207</v>
-      </c>
-      <c r="H7" s="17" t="inlineStr">
-        <is>
-          <t>5A 5ek_log</t>
-        </is>
-      </c>
-      <c r="I7" s="17" t="inlineStr">
-        <is>
-          <t>log</t>
-        </is>
-      </c>
-      <c r="J7" s="17" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="K7" s="18" t="n">
-        <v>210</v>
-      </c>
-      <c r="L7" s="17" t="inlineStr">
-        <is>
-          <t>4A 4ra_log</t>
-        </is>
-      </c>
-      <c r="M7" s="17" t="inlineStr">
-        <is>
-          <t>ra</t>
-        </is>
-      </c>
       <c r="N7" s="17" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>JT</t>
         </is>
       </c>
       <c r="O7" s="18" t="n">
-        <v>210</v>
+        <v>115</v>
       </c>
       <c r="P7" s="17" t="inlineStr">
         <is>
@@ -1298,21 +1298,21 @@
       </c>
       <c r="T7" s="17" t="inlineStr">
         <is>
-          <t>3S 3sport</t>
+          <t>2B 2gas</t>
         </is>
       </c>
       <c r="U7" s="17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>j2</t>
         </is>
       </c>
       <c r="V7" s="17" t="inlineStr">
         <is>
-          <t>KY</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="W7" s="18" t="n">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" ht="14.3" customHeight="1">
@@ -1325,57 +1325,57 @@
       </c>
       <c r="D8" s="17" t="inlineStr">
         <is>
-          <t>1d 1wz</t>
+          <t>3C 3hot</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>j2</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="F8" s="17" t="inlineStr">
         <is>
-          <t>PJ</t>
+          <t>KY</t>
         </is>
       </c>
       <c r="G8" s="18" t="n">
+        <v>207</v>
+      </c>
+      <c r="H8" s="17" t="inlineStr">
+        <is>
+          <t>5A 5ek_log</t>
+        </is>
+      </c>
+      <c r="I8" s="17" t="inlineStr">
+        <is>
+          <t>log</t>
+        </is>
+      </c>
+      <c r="J8" s="17" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="K8" s="18" t="n">
         <v>210</v>
       </c>
-      <c r="H8" s="17" t="inlineStr">
-        <is>
-          <t>4B 4gas_fry</t>
-        </is>
-      </c>
-      <c r="I8" s="17" t="inlineStr">
-        <is>
-          <t>gas</t>
-        </is>
-      </c>
-      <c r="J8" s="17" t="inlineStr">
-        <is>
-          <t>KY</t>
-        </is>
-      </c>
-      <c r="K8" s="18" t="n">
-        <v>207</v>
-      </c>
       <c r="L8" s="17" t="inlineStr">
         <is>
-          <t>2C 2hot</t>
+          <t>4A 4ra_log</t>
         </is>
       </c>
       <c r="M8" s="17" t="inlineStr">
         <is>
-          <t>hot</t>
+          <t>ra</t>
         </is>
       </c>
       <c r="N8" s="17" t="inlineStr">
         <is>
-          <t>JT</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="O8" s="18" t="n">
-        <v>115</v>
+        <v>210</v>
       </c>
       <c r="P8" s="17" t="inlineStr">
         <is>
@@ -1397,21 +1397,21 @@
       </c>
       <c r="T8" s="17" t="inlineStr">
         <is>
-          <t>2B 2gas</t>
+          <t>3S 3sport</t>
         </is>
       </c>
       <c r="U8" s="17" t="inlineStr">
         <is>
-          <t>j2</t>
+          <t>-</t>
         </is>
       </c>
       <c r="V8" s="17" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>KY</t>
         </is>
       </c>
       <c r="W8" s="18" t="n">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" ht="14.3" customHeight="1">
@@ -1426,75 +1426,75 @@
       </c>
       <c r="D9" s="15" t="inlineStr">
         <is>
-          <t>3C 3hot</t>
+          <t>1d 1wz</t>
         </is>
       </c>
       <c r="E9" s="15" t="inlineStr">
         <is>
+          <t>j1</t>
+        </is>
+      </c>
+      <c r="F9" s="15" t="inlineStr">
+        <is>
+          <t>PJ</t>
+        </is>
+      </c>
+      <c r="G9" s="16" t="n">
+        <v>210</v>
+      </c>
+      <c r="H9" s="15" t="inlineStr">
+        <is>
+          <t>4B 4gas_fry</t>
+        </is>
+      </c>
+      <c r="I9" s="15" t="inlineStr">
+        <is>
+          <t>gas</t>
+        </is>
+      </c>
+      <c r="J9" s="15" t="inlineStr">
+        <is>
+          <t>KY</t>
+        </is>
+      </c>
+      <c r="K9" s="16" t="n">
+        <v>207</v>
+      </c>
+      <c r="L9" s="15" t="inlineStr">
+        <is>
+          <t>1d 1wz</t>
+        </is>
+      </c>
+      <c r="M9" s="15" t="inlineStr">
+        <is>
+          <t>j1</t>
+        </is>
+      </c>
+      <c r="N9" s="15" t="inlineStr">
+        <is>
+          <t>PJ</t>
+        </is>
+      </c>
+      <c r="O9" s="16" t="n">
+        <v>116</v>
+      </c>
+      <c r="P9" s="15" t="inlineStr">
+        <is>
+          <t>2C 2hot</t>
+        </is>
+      </c>
+      <c r="Q9" s="15" t="inlineStr">
+        <is>
           <t>hot</t>
         </is>
       </c>
-      <c r="F9" s="15" t="inlineStr">
-        <is>
-          <t>KY</t>
-        </is>
-      </c>
-      <c r="G9" s="16" t="n">
-        <v>207</v>
-      </c>
-      <c r="H9" s="15" t="inlineStr">
-        <is>
-          <t>5A 5ek_log</t>
-        </is>
-      </c>
-      <c r="I9" s="15" t="inlineStr">
-        <is>
-          <t>log</t>
-        </is>
-      </c>
-      <c r="J9" s="15" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="K9" s="16" t="n">
-        <v>210</v>
-      </c>
-      <c r="L9" s="15" t="inlineStr">
-        <is>
-          <t>2A 2ek_fry</t>
-        </is>
-      </c>
-      <c r="M9" s="15" t="inlineStr">
-        <is>
-          <t>fry</t>
-        </is>
-      </c>
-      <c r="N9" s="15" t="inlineStr">
-        <is>
-          <t>KY</t>
-        </is>
-      </c>
-      <c r="O9" s="16" t="n">
-        <v>207</v>
-      </c>
-      <c r="P9" s="15" t="inlineStr">
-        <is>
-          <t>4B 4gas_fry</t>
-        </is>
-      </c>
-      <c r="Q9" s="15" t="inlineStr">
-        <is>
-          <t>gas</t>
-        </is>
-      </c>
       <c r="R9" s="15" t="inlineStr">
         <is>
-          <t>KY</t>
+          <t>JT</t>
         </is>
       </c>
       <c r="S9" s="16" t="n">
-        <v>207</v>
+        <v>115</v>
       </c>
       <c r="T9" s="15" t="inlineStr">
         <is>
@@ -1525,75 +1525,75 @@
       </c>
       <c r="D10" s="15" t="inlineStr">
         <is>
-          <t>1d 1wz</t>
+          <t>3C 3hot</t>
         </is>
       </c>
       <c r="E10" s="15" t="inlineStr">
         <is>
-          <t>j1</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="F10" s="15" t="inlineStr">
         <is>
-          <t>PJ</t>
+          <t>KY</t>
         </is>
       </c>
       <c r="G10" s="16" t="n">
+        <v>207</v>
+      </c>
+      <c r="H10" s="15" t="inlineStr">
+        <is>
+          <t>5A 5ek_log</t>
+        </is>
+      </c>
+      <c r="I10" s="15" t="inlineStr">
+        <is>
+          <t>log</t>
+        </is>
+      </c>
+      <c r="J10" s="15" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="K10" s="16" t="n">
         <v>210</v>
       </c>
-      <c r="H10" s="15" t="inlineStr">
+      <c r="L10" s="15" t="inlineStr">
+        <is>
+          <t>2A 2ek_fry</t>
+        </is>
+      </c>
+      <c r="M10" s="15" t="inlineStr">
+        <is>
+          <t>fry</t>
+        </is>
+      </c>
+      <c r="N10" s="15" t="inlineStr">
+        <is>
+          <t>KY</t>
+        </is>
+      </c>
+      <c r="O10" s="16" t="n">
+        <v>207</v>
+      </c>
+      <c r="P10" s="15" t="inlineStr">
         <is>
           <t>4B 4gas_fry</t>
         </is>
       </c>
-      <c r="I10" s="15" t="inlineStr">
+      <c r="Q10" s="15" t="inlineStr">
         <is>
           <t>gas</t>
         </is>
       </c>
-      <c r="J10" s="15" t="inlineStr">
+      <c r="R10" s="15" t="inlineStr">
         <is>
           <t>KY</t>
         </is>
       </c>
-      <c r="K10" s="16" t="n">
+      <c r="S10" s="16" t="n">
         <v>207</v>
-      </c>
-      <c r="L10" s="15" t="inlineStr">
-        <is>
-          <t>4A 4ra_log</t>
-        </is>
-      </c>
-      <c r="M10" s="15" t="inlineStr">
-        <is>
-          <t>log</t>
-        </is>
-      </c>
-      <c r="N10" s="15" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="O10" s="16" t="n">
-        <v>210</v>
-      </c>
-      <c r="P10" s="15" t="inlineStr">
-        <is>
-          <t>2C 2hot</t>
-        </is>
-      </c>
-      <c r="Q10" s="15" t="inlineStr">
-        <is>
-          <t>hot</t>
-        </is>
-      </c>
-      <c r="R10" s="15" t="inlineStr">
-        <is>
-          <t>JT</t>
-        </is>
-      </c>
-      <c r="S10" s="16" t="n">
-        <v>115</v>
       </c>
       <c r="T10" s="15" t="inlineStr">
         <is>
@@ -1632,21 +1632,21 @@
       <c r="K11" s="16" t="inlineStr"/>
       <c r="L11" s="15" t="inlineStr">
         <is>
-          <t>5B 5gas_fry</t>
+          <t>4A 4ra_log</t>
         </is>
       </c>
       <c r="M11" s="15" t="inlineStr">
         <is>
-          <t>gas</t>
+          <t>log</t>
         </is>
       </c>
       <c r="N11" s="15" t="inlineStr">
         <is>
-          <t>JT</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="O11" s="16" t="n">
-        <v>115</v>
+        <v>210</v>
       </c>
       <c r="P11" s="15" t="inlineStr"/>
       <c r="Q11" s="15" t="inlineStr"/>
@@ -1675,21 +1675,21 @@
       <c r="K12" s="16" t="inlineStr"/>
       <c r="L12" s="15" t="inlineStr">
         <is>
-          <t>1d 1wz</t>
+          <t>5B 5gas_fry</t>
         </is>
       </c>
       <c r="M12" s="15" t="inlineStr">
         <is>
-          <t>j1</t>
+          <t>gas</t>
         </is>
       </c>
       <c r="N12" s="15" t="inlineStr">
         <is>
-          <t>PJ</t>
+          <t>JT</t>
         </is>
       </c>
       <c r="O12" s="16" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P12" s="15" t="inlineStr"/>
       <c r="Q12" s="15" t="inlineStr"/>
@@ -1748,57 +1748,57 @@
       </c>
       <c r="L13" s="17" t="inlineStr">
         <is>
-          <t>2A 2ek_fry</t>
+          <t>1d 1wz</t>
         </is>
       </c>
       <c r="M13" s="17" t="inlineStr">
         <is>
-          <t>ek</t>
+          <t>j2</t>
         </is>
       </c>
       <c r="N13" s="17" t="inlineStr">
         <is>
+          <t>PJ</t>
+        </is>
+      </c>
+      <c r="O13" s="18" t="n">
+        <v>116</v>
+      </c>
+      <c r="P13" s="17" t="inlineStr">
+        <is>
+          <t>3JL</t>
+        </is>
+      </c>
+      <c r="Q13" s="17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R13" s="17" t="inlineStr">
+        <is>
           <t>KY</t>
         </is>
       </c>
-      <c r="O13" s="18" t="n">
-        <v>207</v>
-      </c>
-      <c r="P13" s="17" t="inlineStr">
-        <is>
-          <t>3d 3wz</t>
-        </is>
-      </c>
-      <c r="Q13" s="17" t="inlineStr">
+      <c r="S13" s="18" t="n">
+        <v>102</v>
+      </c>
+      <c r="T13" s="17" t="inlineStr">
+        <is>
+          <t>2d 2wz</t>
+        </is>
+      </c>
+      <c r="U13" s="17" t="inlineStr">
         <is>
           <t>j2</t>
         </is>
       </c>
-      <c r="R13" s="17" t="inlineStr">
-        <is>
-          <t>JT</t>
-        </is>
-      </c>
-      <c r="S13" s="18" t="n">
-        <v>115</v>
-      </c>
-      <c r="T13" s="17" t="inlineStr">
-        <is>
-          <t>5A 5ek_log</t>
-        </is>
-      </c>
-      <c r="U13" s="17" t="inlineStr">
-        <is>
-          <t>log</t>
-        </is>
-      </c>
       <c r="V13" s="17" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PJ</t>
         </is>
       </c>
       <c r="W13" s="18" t="n">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" ht="14.3" customHeight="1">
@@ -1847,57 +1847,57 @@
       </c>
       <c r="L14" s="17" t="inlineStr">
         <is>
-          <t>5B 5gas_fry</t>
+          <t>2A 2ek_fry</t>
         </is>
       </c>
       <c r="M14" s="17" t="inlineStr">
         <is>
-          <t>gas</t>
+          <t>ek</t>
         </is>
       </c>
       <c r="N14" s="17" t="inlineStr">
         <is>
+          <t>KY</t>
+        </is>
+      </c>
+      <c r="O14" s="18" t="n">
+        <v>207</v>
+      </c>
+      <c r="P14" s="17" t="inlineStr">
+        <is>
+          <t>3d 3wz</t>
+        </is>
+      </c>
+      <c r="Q14" s="17" t="inlineStr">
+        <is>
+          <t>j2</t>
+        </is>
+      </c>
+      <c r="R14" s="17" t="inlineStr">
+        <is>
           <t>JT</t>
         </is>
       </c>
-      <c r="O14" s="18" t="n">
+      <c r="S14" s="18" t="n">
         <v>115</v>
       </c>
-      <c r="P14" s="17" t="inlineStr">
-        <is>
-          <t>3JL</t>
-        </is>
-      </c>
-      <c r="Q14" s="17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R14" s="17" t="inlineStr">
-        <is>
-          <t>KY</t>
-        </is>
-      </c>
-      <c r="S14" s="18" t="n">
-        <v>102</v>
-      </c>
       <c r="T14" s="17" t="inlineStr">
         <is>
-          <t>2d 2wz</t>
+          <t>5A 5ek_log</t>
         </is>
       </c>
       <c r="U14" s="17" t="inlineStr">
         <is>
-          <t>j2</t>
+          <t>log</t>
         </is>
       </c>
       <c r="V14" s="17" t="inlineStr">
         <is>
-          <t>PJ</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="W14" s="18" t="n">
-        <v>202</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" ht="14.3" customHeight="1">
@@ -1961,21 +1961,21 @@
       <c r="K16" s="18" t="inlineStr"/>
       <c r="L16" s="17" t="inlineStr">
         <is>
-          <t>1d 1wz</t>
+          <t>5B 5gas_fry</t>
         </is>
       </c>
       <c r="M16" s="17" t="inlineStr">
         <is>
-          <t>j2</t>
+          <t>gas</t>
         </is>
       </c>
       <c r="N16" s="17" t="inlineStr">
         <is>
-          <t>PJ</t>
+          <t>JT</t>
         </is>
       </c>
       <c r="O16" s="18" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P16" s="17" t="inlineStr"/>
       <c r="Q16" s="17" t="inlineStr"/>
@@ -2016,21 +2016,21 @@
       </c>
       <c r="H17" s="15" t="inlineStr">
         <is>
-          <t>5A 5ek_log</t>
+          <t>1B 1gas_log</t>
         </is>
       </c>
       <c r="I17" s="15" t="inlineStr">
         <is>
-          <t>ek</t>
+          <t>log</t>
         </is>
       </c>
       <c r="J17" s="15" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>JT</t>
         </is>
       </c>
       <c r="K17" s="16" t="n">
-        <v>210</v>
+        <v>115</v>
       </c>
       <c r="L17" s="15" t="inlineStr">
         <is>
@@ -2052,39 +2052,41 @@
       </c>
       <c r="P17" s="15" t="inlineStr">
         <is>
-          <t>3S 3sport</t>
+          <t>2d 2wz</t>
         </is>
       </c>
       <c r="Q17" s="15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>j1</t>
         </is>
       </c>
       <c r="R17" s="15" t="inlineStr">
         <is>
-          <t>KY</t>
-        </is>
-      </c>
-      <c r="S17" s="16" t="n">
+          <t>PJ</t>
+        </is>
+      </c>
+      <c r="S17" s="16" t="inlineStr">
+        <is>
+          <t>_02</t>
+        </is>
+      </c>
+      <c r="T17" s="15" t="inlineStr">
+        <is>
+          <t>1B 1gas_log</t>
+        </is>
+      </c>
+      <c r="U17" s="15" t="inlineStr">
+        <is>
+          <t>log</t>
+        </is>
+      </c>
+      <c r="V17" s="15" t="inlineStr">
+        <is>
+          <t>JT</t>
+        </is>
+      </c>
+      <c r="W17" s="16" t="n">
         <v>207</v>
-      </c>
-      <c r="T17" s="15" t="inlineStr">
-        <is>
-          <t>5A 5ek_log</t>
-        </is>
-      </c>
-      <c r="U17" s="15" t="inlineStr">
-        <is>
-          <t>log</t>
-        </is>
-      </c>
-      <c r="V17" s="15" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W17" s="16" t="n">
-        <v>210</v>
       </c>
     </row>
     <row r="18" ht="14.3" customHeight="1">
@@ -2115,21 +2117,21 @@
       </c>
       <c r="H18" s="15" t="inlineStr">
         <is>
-          <t>1B 1gas_log</t>
+          <t>4B 4gas_fry</t>
         </is>
       </c>
       <c r="I18" s="15" t="inlineStr">
         <is>
-          <t>log</t>
+          <t>fry</t>
         </is>
       </c>
       <c r="J18" s="15" t="inlineStr">
         <is>
-          <t>JT</t>
+          <t>KY</t>
         </is>
       </c>
       <c r="K18" s="16" t="n">
-        <v>115</v>
+        <v>207</v>
       </c>
       <c r="L18" s="15" t="inlineStr">
         <is>
@@ -2151,39 +2153,39 @@
       </c>
       <c r="P18" s="15" t="inlineStr">
         <is>
-          <t>4A 4ra_log</t>
+          <t>3S 3sport</t>
         </is>
       </c>
       <c r="Q18" s="15" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R18" s="15" t="inlineStr">
+        <is>
+          <t>KY</t>
+        </is>
+      </c>
+      <c r="S18" s="16" t="n">
+        <v>207</v>
+      </c>
+      <c r="T18" s="15" t="inlineStr">
+        <is>
+          <t>5A 5ek_log</t>
+        </is>
+      </c>
+      <c r="U18" s="15" t="inlineStr">
+        <is>
           <t>log</t>
         </is>
       </c>
-      <c r="R18" s="15" t="inlineStr">
+      <c r="V18" s="15" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="S18" s="16" t="n">
+      <c r="W18" s="16" t="n">
         <v>210</v>
-      </c>
-      <c r="T18" s="15" t="inlineStr">
-        <is>
-          <t>1B 1gas_log</t>
-        </is>
-      </c>
-      <c r="U18" s="15" t="inlineStr">
-        <is>
-          <t>log</t>
-        </is>
-      </c>
-      <c r="V18" s="15" t="inlineStr">
-        <is>
-          <t>JT</t>
-        </is>
-      </c>
-      <c r="W18" s="16" t="n">
-        <v>207</v>
       </c>
     </row>
     <row r="19" ht="14.3" customHeight="1">
@@ -2200,21 +2202,21 @@
       <c r="G19" s="16" t="inlineStr"/>
       <c r="H19" s="15" t="inlineStr">
         <is>
-          <t>4B 4gas_fry</t>
+          <t>5A 5ek_log</t>
         </is>
       </c>
       <c r="I19" s="15" t="inlineStr">
         <is>
-          <t>fry</t>
+          <t>ek</t>
         </is>
       </c>
       <c r="J19" s="15" t="inlineStr">
         <is>
-          <t>KY</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="K19" s="16" t="n">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="L19" s="15" t="inlineStr"/>
       <c r="M19" s="15" t="inlineStr"/>
@@ -2222,7 +2224,7 @@
       <c r="O19" s="16" t="inlineStr"/>
       <c r="P19" s="15" t="inlineStr">
         <is>
-          <t>2d 2wz</t>
+          <t>3d 3wz</t>
         </is>
       </c>
       <c r="Q19" s="15" t="inlineStr">
@@ -2232,13 +2234,11 @@
       </c>
       <c r="R19" s="15" t="inlineStr">
         <is>
-          <t>PJ</t>
-        </is>
-      </c>
-      <c r="S19" s="16" t="inlineStr">
-        <is>
-          <t>_02</t>
-        </is>
+          <t>JT</t>
+        </is>
+      </c>
+      <c r="S19" s="16" t="n">
+        <v>115</v>
       </c>
       <c r="T19" s="15" t="inlineStr">
         <is>
@@ -2281,21 +2281,21 @@
       <c r="O20" s="16" t="inlineStr"/>
       <c r="P20" s="15" t="inlineStr">
         <is>
-          <t>3d 3wz</t>
+          <t>4A 4ra_log</t>
         </is>
       </c>
       <c r="Q20" s="15" t="inlineStr">
         <is>
-          <t>j1</t>
+          <t>log</t>
         </is>
       </c>
       <c r="R20" s="15" t="inlineStr">
         <is>
-          <t>JT</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="S20" s="16" t="n">
-        <v>115</v>
+        <v>210</v>
       </c>
       <c r="T20" s="15" t="inlineStr"/>
       <c r="U20" s="15" t="inlineStr"/>
@@ -2314,39 +2314,39 @@
       </c>
       <c r="D21" s="17" t="inlineStr">
         <is>
-          <t>5A 5ek_log</t>
+          <t>3B 3gas</t>
         </is>
       </c>
       <c r="E21" s="17" t="inlineStr">
         <is>
-          <t>ek</t>
+          <t>j2</t>
         </is>
       </c>
       <c r="F21" s="17" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>JT</t>
         </is>
       </c>
       <c r="G21" s="18" t="n">
-        <v>210</v>
+        <v>115</v>
       </c>
       <c r="H21" s="17" t="inlineStr">
         <is>
-          <t>5A 5ek_log</t>
+          <t>1B 1gas_log</t>
         </is>
       </c>
       <c r="I21" s="17" t="inlineStr">
         <is>
-          <t>ek</t>
+          <t>gas</t>
         </is>
       </c>
       <c r="J21" s="17" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>JT</t>
         </is>
       </c>
       <c r="K21" s="18" t="n">
-        <v>210</v>
+        <v>115</v>
       </c>
       <c r="L21" s="17" t="inlineStr">
         <is>
@@ -2413,39 +2413,39 @@
       </c>
       <c r="D22" s="17" t="inlineStr">
         <is>
-          <t>3B 3gas</t>
+          <t>4B 4gas_fry</t>
         </is>
       </c>
       <c r="E22" s="17" t="inlineStr">
         <is>
-          <t>j2</t>
+          <t>fry</t>
         </is>
       </c>
       <c r="F22" s="17" t="inlineStr">
         <is>
-          <t>JT</t>
+          <t>KY</t>
         </is>
       </c>
       <c r="G22" s="18" t="n">
-        <v>115</v>
+        <v>207</v>
       </c>
       <c r="H22" s="17" t="inlineStr">
         <is>
-          <t>1B 1gas_log</t>
+          <t>4B 4gas_fry</t>
         </is>
       </c>
       <c r="I22" s="17" t="inlineStr">
         <is>
-          <t>gas</t>
+          <t>fry</t>
         </is>
       </c>
       <c r="J22" s="17" t="inlineStr">
         <is>
-          <t>JT</t>
+          <t>KY</t>
         </is>
       </c>
       <c r="K22" s="18" t="n">
-        <v>115</v>
+        <v>207</v>
       </c>
       <c r="L22" s="17" t="inlineStr"/>
       <c r="M22" s="17" t="inlineStr"/>
@@ -2498,39 +2498,39 @@
       </c>
       <c r="D23" s="17" t="inlineStr">
         <is>
-          <t>4B 4gas_fry</t>
+          <t>5A 5ek_log</t>
         </is>
       </c>
       <c r="E23" s="17" t="inlineStr">
         <is>
-          <t>fry</t>
+          <t>ek</t>
         </is>
       </c>
       <c r="F23" s="17" t="inlineStr">
         <is>
-          <t>KY</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="G23" s="18" t="n">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="H23" s="17" t="inlineStr">
         <is>
-          <t>4B 4gas_fry</t>
+          <t>5A 5ek_log</t>
         </is>
       </c>
       <c r="I23" s="17" t="inlineStr">
         <is>
-          <t>fry</t>
+          <t>ek</t>
         </is>
       </c>
       <c r="J23" s="17" t="inlineStr">
         <is>
-          <t>KY</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="K23" s="18" t="n">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="L23" s="17" t="inlineStr"/>
       <c r="M23" s="17" t="inlineStr"/>
@@ -2571,21 +2571,21 @@
       </c>
       <c r="D24" s="15" t="inlineStr">
         <is>
-          <t>3S 3sport</t>
+          <t>3B 3gas</t>
         </is>
       </c>
       <c r="E24" s="15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>j1</t>
         </is>
       </c>
       <c r="F24" s="15" t="inlineStr">
         <is>
-          <t>KY</t>
+          <t>JT</t>
         </is>
       </c>
       <c r="G24" s="16" t="n">
-        <v>207</v>
+        <v>115</v>
       </c>
       <c r="H24" s="15" t="inlineStr">
         <is>
@@ -2656,21 +2656,21 @@
       </c>
       <c r="D25" s="15" t="inlineStr">
         <is>
-          <t>5A 5ek_log</t>
+          <t>3S 3sport</t>
         </is>
       </c>
       <c r="E25" s="15" t="inlineStr">
         <is>
-          <t>ek</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F25" s="15" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>KY</t>
         </is>
       </c>
       <c r="G25" s="16" t="n">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H25" s="15" t="inlineStr">
         <is>
@@ -2727,21 +2727,21 @@
       </c>
       <c r="D26" s="15" t="inlineStr">
         <is>
-          <t>3B 3gas</t>
+          <t>5A 5ek_log</t>
         </is>
       </c>
       <c r="E26" s="15" t="inlineStr">
         <is>
-          <t>j1</t>
+          <t>ek</t>
         </is>
       </c>
       <c r="F26" s="15" t="inlineStr">
         <is>
-          <t>JT</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="G26" s="16" t="n">
-        <v>115</v>
+        <v>210</v>
       </c>
       <c r="H26" s="15" t="inlineStr"/>
       <c r="I26" s="15" t="inlineStr"/>
@@ -9643,21 +9643,21 @@
       <c r="K5" s="16" t="inlineStr"/>
       <c r="L5" s="15" t="inlineStr">
         <is>
-          <t>2A 2ek_fry</t>
+          <t>1B 1gas_log</t>
         </is>
       </c>
       <c r="M5" s="15" t="inlineStr">
         <is>
-          <t>ek</t>
+          <t>-</t>
         </is>
       </c>
       <c r="N5" s="15" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>PT</t>
         </is>
       </c>
       <c r="O5" s="16" t="n">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="P5" s="15" t="inlineStr">
         <is>
@@ -9700,21 +9700,21 @@
       <c r="K6" s="16" t="inlineStr"/>
       <c r="L6" s="15" t="inlineStr">
         <is>
-          <t>1B 1gas_log</t>
+          <t>2A 2ek_fry</t>
         </is>
       </c>
       <c r="M6" s="15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>ek</t>
         </is>
       </c>
       <c r="N6" s="15" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="O6" s="16" t="n">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="P6" s="15" t="inlineStr"/>
       <c r="Q6" s="15" t="inlineStr"/>
@@ -11623,7 +11623,7 @@
       </c>
       <c r="T5" s="15" t="inlineStr">
         <is>
-          <t>3S 3sport</t>
+          <t>2d 2wz</t>
         </is>
       </c>
       <c r="U5" s="15" t="inlineStr">
@@ -11633,11 +11633,11 @@
       </c>
       <c r="V5" s="15" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>SZ</t>
         </is>
       </c>
       <c r="W5" s="16" t="n">
-        <v>7</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" ht="14.3" customHeight="1">
@@ -11666,7 +11666,7 @@
       <c r="S6" s="16" t="inlineStr"/>
       <c r="T6" s="15" t="inlineStr">
         <is>
-          <t>2d 2wz</t>
+          <t>3S 3sport</t>
         </is>
       </c>
       <c r="U6" s="15" t="inlineStr">
@@ -11676,11 +11676,11 @@
       </c>
       <c r="V6" s="15" t="inlineStr">
         <is>
-          <t>SZ</t>
+          <t>PA</t>
         </is>
       </c>
       <c r="W6" s="16" t="n">
-        <v>112</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" ht="14.3" customHeight="1">
@@ -11721,7 +11721,7 @@
       <c r="O7" s="18" t="inlineStr"/>
       <c r="P7" s="17" t="inlineStr">
         <is>
-          <t>4B 4gas_fry</t>
+          <t>3d 3wz</t>
         </is>
       </c>
       <c r="Q7" s="17" t="inlineStr">
@@ -11731,11 +11731,11 @@
       </c>
       <c r="R7" s="17" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>SZ</t>
         </is>
       </c>
       <c r="S7" s="18" t="n">
-        <v>203</v>
+        <v>112</v>
       </c>
       <c r="T7" s="17" t="inlineStr"/>
       <c r="U7" s="17" t="inlineStr"/>
@@ -11764,7 +11764,7 @@
       <c r="O8" s="18" t="inlineStr"/>
       <c r="P8" s="17" t="inlineStr">
         <is>
-          <t>3d 3wz</t>
+          <t>4B 4gas_fry</t>
         </is>
       </c>
       <c r="Q8" s="17" t="inlineStr">
@@ -11774,11 +11774,11 @@
       </c>
       <c r="R8" s="17" t="inlineStr">
         <is>
-          <t>SZ</t>
+          <t>PA</t>
         </is>
       </c>
       <c r="S8" s="18" t="n">
-        <v>112</v>
+        <v>203</v>
       </c>
       <c r="T8" s="17" t="inlineStr"/>
       <c r="U8" s="17" t="inlineStr"/>
@@ -11898,7 +11898,7 @@
       <c r="S10" s="16" t="inlineStr"/>
       <c r="T10" s="15" t="inlineStr">
         <is>
-          <t>3C 3hot</t>
+          <t>2L 2log</t>
         </is>
       </c>
       <c r="U10" s="15" t="inlineStr">
@@ -11908,11 +11908,11 @@
       </c>
       <c r="V10" s="15" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>SZ</t>
         </is>
       </c>
       <c r="W10" s="16" t="n">
-        <v>208</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" ht="14.3" customHeight="1">
@@ -11941,7 +11941,7 @@
       <c r="S11" s="16" t="inlineStr"/>
       <c r="T11" s="15" t="inlineStr">
         <is>
-          <t>2L 2log</t>
+          <t>3C 3hot</t>
         </is>
       </c>
       <c r="U11" s="15" t="inlineStr">
@@ -11951,11 +11951,11 @@
       </c>
       <c r="V11" s="15" t="inlineStr">
         <is>
-          <t>SZ</t>
+          <t>PA</t>
         </is>
       </c>
       <c r="W11" s="16" t="n">
-        <v>112</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" ht="14.3" customHeight="1">
@@ -13625,7 +13625,7 @@
       </c>
       <c r="D5" s="15" t="inlineStr">
         <is>
-          <t>4A 4ra_log</t>
+          <t>2C 2hot</t>
         </is>
       </c>
       <c r="E5" s="15" t="inlineStr">
@@ -13635,11 +13635,11 @@
       </c>
       <c r="F5" s="15" t="inlineStr">
         <is>
-          <t>IB</t>
+          <t>GM</t>
         </is>
       </c>
       <c r="G5" s="16" t="n">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="H5" s="15" t="inlineStr">
         <is>
@@ -13661,7 +13661,7 @@
       </c>
       <c r="L5" s="15" t="inlineStr">
         <is>
-          <t>3B 3gas</t>
+          <t>2L 2log</t>
         </is>
       </c>
       <c r="M5" s="15" t="inlineStr">
@@ -13671,29 +13671,31 @@
       </c>
       <c r="N5" s="15" t="inlineStr">
         <is>
+          <t>IB</t>
+        </is>
+      </c>
+      <c r="O5" s="16" t="n">
+        <v>111</v>
+      </c>
+      <c r="P5" s="15" t="inlineStr">
+        <is>
+          <t>3JL</t>
+        </is>
+      </c>
+      <c r="Q5" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R5" s="15" t="inlineStr">
+        <is>
           <t>GM</t>
         </is>
       </c>
-      <c r="O5" s="16" t="n">
-        <v>11</v>
-      </c>
-      <c r="P5" s="15" t="inlineStr">
-        <is>
-          <t>3d 3wz</t>
-        </is>
-      </c>
-      <c r="Q5" s="15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R5" s="15" t="inlineStr">
-        <is>
-          <t>IB</t>
-        </is>
-      </c>
-      <c r="S5" s="16" t="n">
-        <v>111</v>
+      <c r="S5" s="16" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
       </c>
       <c r="T5" s="15" t="inlineStr">
         <is>
@@ -13724,7 +13726,7 @@
       </c>
       <c r="D6" s="15" t="inlineStr">
         <is>
-          <t>2C 2hot</t>
+          <t>4A 4ra_log</t>
         </is>
       </c>
       <c r="E6" s="15" t="inlineStr">
@@ -13734,11 +13736,11 @@
       </c>
       <c r="F6" s="15" t="inlineStr">
         <is>
-          <t>GM</t>
+          <t>IB</t>
         </is>
       </c>
       <c r="G6" s="16" t="n">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="H6" s="15" t="inlineStr"/>
       <c r="I6" s="15" t="inlineStr"/>
@@ -13746,7 +13748,7 @@
       <c r="K6" s="16" t="inlineStr"/>
       <c r="L6" s="15" t="inlineStr">
         <is>
-          <t>2L 2log</t>
+          <t>3B 3gas</t>
         </is>
       </c>
       <c r="M6" s="15" t="inlineStr">
@@ -13756,31 +13758,29 @@
       </c>
       <c r="N6" s="15" t="inlineStr">
         <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="O6" s="16" t="n">
+        <v>11</v>
+      </c>
+      <c r="P6" s="15" t="inlineStr">
+        <is>
+          <t>3d 3wz</t>
+        </is>
+      </c>
+      <c r="Q6" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R6" s="15" t="inlineStr">
+        <is>
           <t>IB</t>
         </is>
       </c>
-      <c r="O6" s="16" t="n">
+      <c r="S6" s="16" t="n">
         <v>111</v>
-      </c>
-      <c r="P6" s="15" t="inlineStr">
-        <is>
-          <t>3JL</t>
-        </is>
-      </c>
-      <c r="Q6" s="15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R6" s="15" t="inlineStr">
-        <is>
-          <t>GM</t>
-        </is>
-      </c>
-      <c r="S6" s="16" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
       </c>
       <c r="T6" s="15" t="inlineStr"/>
       <c r="U6" s="15" t="inlineStr"/>
@@ -13799,7 +13799,7 @@
       </c>
       <c r="D7" s="17" t="inlineStr">
         <is>
-          <t>4A 4ra_log</t>
+          <t>2C 2hot</t>
         </is>
       </c>
       <c r="E7" s="17" t="inlineStr">
@@ -13809,11 +13809,11 @@
       </c>
       <c r="F7" s="17" t="inlineStr">
         <is>
-          <t>IB</t>
+          <t>GM</t>
         </is>
       </c>
       <c r="G7" s="18" t="n">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="H7" s="17" t="inlineStr">
         <is>
@@ -13835,7 +13835,7 @@
       </c>
       <c r="L7" s="17" t="inlineStr">
         <is>
-          <t>3B 3gas</t>
+          <t>2L 2log</t>
         </is>
       </c>
       <c r="M7" s="17" t="inlineStr">
@@ -13845,11 +13845,11 @@
       </c>
       <c r="N7" s="17" t="inlineStr">
         <is>
-          <t>GM</t>
+          <t>IB</t>
         </is>
       </c>
       <c r="O7" s="18" t="n">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="P7" s="17" t="inlineStr">
         <is>
@@ -13898,7 +13898,7 @@
       </c>
       <c r="D8" s="17" t="inlineStr">
         <is>
-          <t>2C 2hot</t>
+          <t>4A 4ra_log</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
@@ -13908,11 +13908,11 @@
       </c>
       <c r="F8" s="17" t="inlineStr">
         <is>
-          <t>GM</t>
+          <t>IB</t>
         </is>
       </c>
       <c r="G8" s="18" t="n">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="H8" s="17" t="inlineStr">
         <is>
@@ -13934,7 +13934,7 @@
       </c>
       <c r="L8" s="17" t="inlineStr">
         <is>
-          <t>2L 2log</t>
+          <t>3B 3gas</t>
         </is>
       </c>
       <c r="M8" s="17" t="inlineStr">
@@ -13944,11 +13944,11 @@
       </c>
       <c r="N8" s="17" t="inlineStr">
         <is>
-          <t>IB</t>
+          <t>GM</t>
         </is>
       </c>
       <c r="O8" s="18" t="n">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="P8" s="17" t="inlineStr">
         <is>
@@ -14098,7 +14098,7 @@
       </c>
       <c r="P10" s="15" t="inlineStr">
         <is>
-          <t>5A 5ek_log</t>
+          <t>3e 3wz</t>
         </is>
       </c>
       <c r="Q10" s="15" t="inlineStr">
@@ -14108,11 +14108,11 @@
       </c>
       <c r="R10" s="15" t="inlineStr">
         <is>
-          <t>IB</t>
+          <t>GM</t>
         </is>
       </c>
       <c r="S10" s="16" t="n">
-        <v>111</v>
+        <v>208</v>
       </c>
       <c r="T10" s="15" t="inlineStr">
         <is>
@@ -14169,7 +14169,7 @@
       </c>
       <c r="P11" s="15" t="inlineStr">
         <is>
-          <t>3e 3wz</t>
+          <t>5A 5ek_log</t>
         </is>
       </c>
       <c r="Q11" s="15" t="inlineStr">
@@ -14179,11 +14179,11 @@
       </c>
       <c r="R11" s="15" t="inlineStr">
         <is>
-          <t>GM</t>
+          <t>IB</t>
         </is>
       </c>
       <c r="S11" s="16" t="n">
-        <v>208</v>
+        <v>111</v>
       </c>
       <c r="T11" s="15" t="inlineStr">
         <is>
@@ -14234,7 +14234,7 @@
       </c>
       <c r="H12" s="17" t="inlineStr">
         <is>
-          <t>5B 5gas_fry</t>
+          <t>1d 1wz</t>
         </is>
       </c>
       <c r="I12" s="17" t="inlineStr">
@@ -14244,11 +14244,11 @@
       </c>
       <c r="J12" s="17" t="inlineStr">
         <is>
-          <t>IB</t>
+          <t>SZ</t>
         </is>
       </c>
       <c r="K12" s="18" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L12" s="17" t="inlineStr">
         <is>
@@ -14270,39 +14270,39 @@
       </c>
       <c r="P12" s="17" t="inlineStr">
         <is>
-          <t>5B 5gas_fry</t>
+          <t>2d 2wz</t>
         </is>
       </c>
       <c r="Q12" s="17" t="inlineStr">
         <is>
+          <t>pol</t>
+        </is>
+      </c>
+      <c r="R12" s="17" t="inlineStr">
+        <is>
+          <t>SZ</t>
+        </is>
+      </c>
+      <c r="S12" s="18" t="n">
+        <v>112</v>
+      </c>
+      <c r="T12" s="17" t="inlineStr">
+        <is>
+          <t>2B 2gas</t>
+        </is>
+      </c>
+      <c r="U12" s="17" t="inlineStr">
+        <is>
           <t>-</t>
         </is>
       </c>
-      <c r="R12" s="17" t="inlineStr">
+      <c r="V12" s="17" t="inlineStr">
         <is>
           <t>IB</t>
         </is>
       </c>
-      <c r="S12" s="18" t="n">
+      <c r="W12" s="18" t="n">
         <v>111</v>
-      </c>
-      <c r="T12" s="17" t="inlineStr">
-        <is>
-          <t>3S 3sport</t>
-        </is>
-      </c>
-      <c r="U12" s="17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V12" s="17" t="inlineStr">
-        <is>
-          <t>GM</t>
-        </is>
-      </c>
-      <c r="W12" s="18" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="13" ht="14.3" customHeight="1">
@@ -14333,7 +14333,7 @@
       </c>
       <c r="H13" s="17" t="inlineStr">
         <is>
-          <t>1d 1wz</t>
+          <t>5B 5gas_fry</t>
         </is>
       </c>
       <c r="I13" s="17" t="inlineStr">
@@ -14343,11 +14343,11 @@
       </c>
       <c r="J13" s="17" t="inlineStr">
         <is>
-          <t>SZ</t>
+          <t>IB</t>
         </is>
       </c>
       <c r="K13" s="18" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L13" s="17" t="inlineStr"/>
       <c r="M13" s="17" t="inlineStr"/>
@@ -14355,25 +14355,25 @@
       <c r="O13" s="18" t="inlineStr"/>
       <c r="P13" s="17" t="inlineStr">
         <is>
-          <t>2d 2wz</t>
+          <t>5B 5gas_fry</t>
         </is>
       </c>
       <c r="Q13" s="17" t="inlineStr">
         <is>
-          <t>pol</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R13" s="17" t="inlineStr">
         <is>
-          <t>SZ</t>
+          <t>IB</t>
         </is>
       </c>
       <c r="S13" s="18" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T13" s="17" t="inlineStr">
         <is>
-          <t>2B 2gas</t>
+          <t>3S 3sport</t>
         </is>
       </c>
       <c r="U13" s="17" t="inlineStr">
@@ -14383,11 +14383,11 @@
       </c>
       <c r="V13" s="17" t="inlineStr">
         <is>
-          <t>IB</t>
+          <t>GM</t>
         </is>
       </c>
       <c r="W13" s="18" t="n">
-        <v>111</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" ht="14.3" customHeight="1">
@@ -14463,7 +14463,7 @@
       </c>
       <c r="H15" s="15" t="inlineStr">
         <is>
-          <t>3S 3sport</t>
+          <t>2B 2gas</t>
         </is>
       </c>
       <c r="I15" s="15" t="inlineStr">
@@ -14473,11 +14473,11 @@
       </c>
       <c r="J15" s="15" t="inlineStr">
         <is>
-          <t>GM</t>
+          <t>IB</t>
         </is>
       </c>
       <c r="K15" s="16" t="n">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="L15" s="15" t="inlineStr">
         <is>
@@ -14548,7 +14548,7 @@
       <c r="G16" s="16" t="inlineStr"/>
       <c r="H16" s="15" t="inlineStr">
         <is>
-          <t>2B 2gas</t>
+          <t>3S 3sport</t>
         </is>
       </c>
       <c r="I16" s="15" t="inlineStr">
@@ -14558,11 +14558,11 @@
       </c>
       <c r="J16" s="15" t="inlineStr">
         <is>
-          <t>IB</t>
+          <t>GM</t>
         </is>
       </c>
       <c r="K16" s="16" t="n">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="L16" s="15" t="inlineStr"/>
       <c r="M16" s="15" t="inlineStr"/>
@@ -14621,7 +14621,7 @@
       </c>
       <c r="H17" s="17" t="inlineStr">
         <is>
-          <t>3S 3sport</t>
+          <t>2B 2gas</t>
         </is>
       </c>
       <c r="I17" s="17" t="inlineStr">
@@ -14631,11 +14631,11 @@
       </c>
       <c r="J17" s="17" t="inlineStr">
         <is>
-          <t>GM</t>
+          <t>IB</t>
         </is>
       </c>
       <c r="K17" s="18" t="n">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="L17" s="17" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
       </c>
       <c r="P17" s="17" t="inlineStr">
         <is>
-          <t>4B 4gas_fry</t>
+          <t>2C 2hot</t>
         </is>
       </c>
       <c r="Q17" s="17" t="inlineStr">
@@ -14667,11 +14667,11 @@
       </c>
       <c r="R17" s="17" t="inlineStr">
         <is>
-          <t>IB</t>
+          <t>GM</t>
         </is>
       </c>
       <c r="S17" s="18" t="n">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="T17" s="17" t="inlineStr">
         <is>
@@ -14720,7 +14720,7 @@
       </c>
       <c r="H18" s="17" t="inlineStr">
         <is>
-          <t>2B 2gas</t>
+          <t>3S 3sport</t>
         </is>
       </c>
       <c r="I18" s="17" t="inlineStr">
@@ -14730,11 +14730,11 @@
       </c>
       <c r="J18" s="17" t="inlineStr">
         <is>
-          <t>IB</t>
+          <t>GM</t>
         </is>
       </c>
       <c r="K18" s="18" t="n">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="L18" s="17" t="inlineStr"/>
       <c r="M18" s="17" t="inlineStr"/>
@@ -14742,7 +14742,7 @@
       <c r="O18" s="18" t="inlineStr"/>
       <c r="P18" s="17" t="inlineStr">
         <is>
-          <t>2C 2hot</t>
+          <t>4B 4gas_fry</t>
         </is>
       </c>
       <c r="Q18" s="17" t="inlineStr">
@@ -14752,11 +14752,11 @@
       </c>
       <c r="R18" s="17" t="inlineStr">
         <is>
-          <t>GM</t>
+          <t>IB</t>
         </is>
       </c>
       <c r="S18" s="18" t="n">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="T18" s="17" t="inlineStr"/>
       <c r="U18" s="17" t="inlineStr"/>
@@ -14775,7 +14775,7 @@
       </c>
       <c r="D19" s="15" t="inlineStr">
         <is>
-          <t>3A 3ra_fry</t>
+          <t>1d 1wz</t>
         </is>
       </c>
       <c r="E19" s="15" t="inlineStr">
@@ -14785,11 +14785,11 @@
       </c>
       <c r="F19" s="15" t="inlineStr">
         <is>
-          <t>GM</t>
+          <t>SZ</t>
         </is>
       </c>
       <c r="G19" s="16" t="n">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="H19" s="15" t="inlineStr">
         <is>
@@ -14874,7 +14874,7 @@
       </c>
       <c r="D20" s="15" t="inlineStr">
         <is>
-          <t>4B 4gas_fry</t>
+          <t>3A 3ra_fry</t>
         </is>
       </c>
       <c r="E20" s="15" t="inlineStr">
@@ -14884,11 +14884,11 @@
       </c>
       <c r="F20" s="15" t="inlineStr">
         <is>
-          <t>IB</t>
+          <t>GM</t>
         </is>
       </c>
       <c r="G20" s="16" t="n">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="H20" s="15" t="inlineStr"/>
       <c r="I20" s="15" t="inlineStr"/>
@@ -14917,7 +14917,7 @@
       </c>
       <c r="D21" s="15" t="inlineStr">
         <is>
-          <t>1d 1wz</t>
+          <t>4B 4gas_fry</t>
         </is>
       </c>
       <c r="E21" s="15" t="inlineStr">
@@ -14927,11 +14927,11 @@
       </c>
       <c r="F21" s="15" t="inlineStr">
         <is>
-          <t>SZ</t>
+          <t>IB</t>
         </is>
       </c>
       <c r="G21" s="16" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H21" s="15" t="inlineStr"/>
       <c r="I21" s="15" t="inlineStr"/>
@@ -17575,7 +17575,7 @@
     <col width="13" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="12" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
     <col width="13" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="12" customWidth="1" min="14" max="14"/>
@@ -17961,7 +17961,7 @@
       </c>
       <c r="D7" s="17" t="inlineStr">
         <is>
-          <t>3B 3gas</t>
+          <t>2L 2log</t>
         </is>
       </c>
       <c r="E7" s="17" t="inlineStr">
@@ -17971,11 +17971,11 @@
       </c>
       <c r="F7" s="17" t="inlineStr">
         <is>
-          <t>KM</t>
+          <t>BJ</t>
         </is>
       </c>
       <c r="G7" s="18" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H7" s="17" t="inlineStr">
         <is>
@@ -17997,7 +17997,7 @@
       </c>
       <c r="L7" s="17" t="inlineStr">
         <is>
-          <t>3A 3ra_fry</t>
+          <t>1B 1gas_log</t>
         </is>
       </c>
       <c r="M7" s="17" t="inlineStr">
@@ -18007,11 +18007,11 @@
       </c>
       <c r="N7" s="17" t="inlineStr">
         <is>
-          <t>KJ</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="O7" s="18" t="n">
-        <v>2</v>
+        <v>110</v>
       </c>
       <c r="P7" s="17" t="inlineStr">
         <is>
@@ -18033,7 +18033,7 @@
       </c>
       <c r="T7" s="17" t="inlineStr">
         <is>
-          <t>4A 4ra_log</t>
+          <t>3L 3log</t>
         </is>
       </c>
       <c r="U7" s="17" t="inlineStr">
@@ -18043,11 +18043,11 @@
       </c>
       <c r="V7" s="17" t="inlineStr">
         <is>
-          <t>KM</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="W7" s="18" t="n">
-        <v>2</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" ht="14.3" customHeight="1">
@@ -18060,7 +18060,7 @@
       </c>
       <c r="D8" s="17" t="inlineStr">
         <is>
-          <t>2L 2log</t>
+          <t>3B 3gas</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
@@ -18070,49 +18070,49 @@
       </c>
       <c r="F8" s="17" t="inlineStr">
         <is>
+          <t>KM</t>
+        </is>
+      </c>
+      <c r="G8" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" s="17" t="inlineStr">
+        <is>
+          <t>3JL</t>
+        </is>
+      </c>
+      <c r="I8" s="17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J8" s="17" t="inlineStr">
+        <is>
           <t>BJ</t>
         </is>
       </c>
-      <c r="G8" s="18" t="n">
-        <v>7</v>
-      </c>
-      <c r="H8" s="17" t="inlineStr">
-        <is>
-          <t>3JL</t>
-        </is>
-      </c>
-      <c r="I8" s="17" t="inlineStr">
+      <c r="K8" s="18" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="L8" s="17" t="inlineStr">
+        <is>
+          <t>3A 3ra_fry</t>
+        </is>
+      </c>
+      <c r="M8" s="17" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="J8" s="17" t="inlineStr">
-        <is>
-          <t>BJ</t>
-        </is>
-      </c>
-      <c r="K8" s="18" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="L8" s="17" t="inlineStr">
-        <is>
-          <t>1B 1gas_log</t>
-        </is>
-      </c>
-      <c r="M8" s="17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="N8" s="17" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>KJ</t>
         </is>
       </c>
       <c r="O8" s="18" t="n">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="P8" s="17" t="inlineStr"/>
       <c r="Q8" s="17" t="inlineStr"/>
@@ -18120,7 +18120,7 @@
       <c r="S8" s="18" t="inlineStr"/>
       <c r="T8" s="17" t="inlineStr">
         <is>
-          <t>3L 3log</t>
+          <t>4A 4ra_log</t>
         </is>
       </c>
       <c r="U8" s="17" t="inlineStr">
@@ -18130,11 +18130,11 @@
       </c>
       <c r="V8" s="17" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>KM</t>
         </is>
       </c>
       <c r="W8" s="18" t="n">
-        <v>110</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" ht="14.3" customHeight="1">
@@ -18167,7 +18167,7 @@
       </c>
       <c r="H9" s="15" t="inlineStr">
         <is>
-          <t>4A 4ra_log</t>
+          <t>3JL</t>
         </is>
       </c>
       <c r="I9" s="15" t="inlineStr">
@@ -18177,11 +18177,13 @@
       </c>
       <c r="J9" s="15" t="inlineStr">
         <is>
-          <t>KM</t>
-        </is>
-      </c>
-      <c r="K9" s="16" t="n">
-        <v>2</v>
+          <t>BJ</t>
+        </is>
+      </c>
+      <c r="K9" s="16" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
       </c>
       <c r="L9" s="15" t="inlineStr">
         <is>
@@ -18203,7 +18205,7 @@
       </c>
       <c r="P9" s="15" t="inlineStr">
         <is>
-          <t>5B 5gas_fry</t>
+          <t>3d 3wz</t>
         </is>
       </c>
       <c r="Q9" s="15" t="inlineStr">
@@ -18213,29 +18215,29 @@
       </c>
       <c r="R9" s="15" t="inlineStr">
         <is>
-          <t>KM</t>
+          <t>AD</t>
         </is>
       </c>
       <c r="S9" s="16" t="n">
-        <v>110</v>
+        <v>7</v>
       </c>
       <c r="T9" s="15" t="inlineStr">
         <is>
-          <t>5B 5gas_fry</t>
+          <t>2d 2wz</t>
         </is>
       </c>
       <c r="U9" s="15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>mat</t>
         </is>
       </c>
       <c r="V9" s="15" t="inlineStr">
         <is>
-          <t>KM</t>
+          <t>AD</t>
         </is>
       </c>
       <c r="W9" s="16" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" ht="14.3" customHeight="1">
@@ -18252,7 +18254,7 @@
       <c r="G10" s="16" t="inlineStr"/>
       <c r="H10" s="15" t="inlineStr">
         <is>
-          <t>3JL</t>
+          <t>4A 4ra_log</t>
         </is>
       </c>
       <c r="I10" s="15" t="inlineStr">
@@ -18262,13 +18264,11 @@
       </c>
       <c r="J10" s="15" t="inlineStr">
         <is>
-          <t>BJ</t>
-        </is>
-      </c>
-      <c r="K10" s="16" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
+          <t>KM</t>
+        </is>
+      </c>
+      <c r="K10" s="16" t="n">
+        <v>2</v>
       </c>
       <c r="L10" s="15" t="inlineStr"/>
       <c r="M10" s="15" t="inlineStr"/>
@@ -18276,7 +18276,7 @@
       <c r="O10" s="16" t="inlineStr"/>
       <c r="P10" s="15" t="inlineStr">
         <is>
-          <t>3d 3wz</t>
+          <t>5B 5gas_fry</t>
         </is>
       </c>
       <c r="Q10" s="15" t="inlineStr">
@@ -18286,29 +18286,29 @@
       </c>
       <c r="R10" s="15" t="inlineStr">
         <is>
-          <t>AD</t>
+          <t>KM</t>
         </is>
       </c>
       <c r="S10" s="16" t="n">
-        <v>7</v>
+        <v>110</v>
       </c>
       <c r="T10" s="15" t="inlineStr">
         <is>
-          <t>2d 2wz</t>
+          <t>5B 5gas_fry</t>
         </is>
       </c>
       <c r="U10" s="15" t="inlineStr">
         <is>
-          <t>mat</t>
+          <t>-</t>
         </is>
       </c>
       <c r="V10" s="15" t="inlineStr">
         <is>
-          <t>AD</t>
+          <t>KM</t>
         </is>
       </c>
       <c r="W10" s="16" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" ht="14.3" customHeight="1">
@@ -18416,7 +18416,7 @@
       </c>
       <c r="L12" s="17" t="inlineStr">
         <is>
-          <t>5ZI</t>
+          <t>5OP</t>
         </is>
       </c>
       <c r="M12" s="17" t="inlineStr">
@@ -18426,11 +18426,11 @@
       </c>
       <c r="N12" s="17" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>KM</t>
         </is>
       </c>
       <c r="O12" s="18" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P12" s="17" t="inlineStr">
         <is>
@@ -18515,7 +18515,7 @@
       </c>
       <c r="L13" s="17" t="inlineStr">
         <is>
-          <t>5OP</t>
+          <t>5ZI</t>
         </is>
       </c>
       <c r="M13" s="17" t="inlineStr">
@@ -18525,11 +18525,11 @@
       </c>
       <c r="N13" s="17" t="inlineStr">
         <is>
-          <t>KM</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="O13" s="18" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P13" s="17" t="inlineStr">
         <is>
@@ -18659,7 +18659,7 @@
       </c>
       <c r="L15" s="15" t="inlineStr">
         <is>
-          <t>3B 3gas</t>
+          <t>1d 1wz</t>
         </is>
       </c>
       <c r="M15" s="15" t="inlineStr">
@@ -18669,11 +18669,11 @@
       </c>
       <c r="N15" s="15" t="inlineStr">
         <is>
-          <t>KM</t>
+          <t>AD</t>
         </is>
       </c>
       <c r="O15" s="16" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="P15" s="15" t="inlineStr">
         <is>
@@ -18730,7 +18730,7 @@
       <c r="K16" s="16" t="inlineStr"/>
       <c r="L16" s="15" t="inlineStr">
         <is>
-          <t>1d 1wz</t>
+          <t>3B 3gas</t>
         </is>
       </c>
       <c r="M16" s="15" t="inlineStr">
@@ -18740,11 +18740,11 @@
       </c>
       <c r="N16" s="15" t="inlineStr">
         <is>
-          <t>AD</t>
+          <t>KM</t>
         </is>
       </c>
       <c r="O16" s="16" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="P16" s="15" t="inlineStr">
         <is>
@@ -18795,7 +18795,7 @@
       </c>
       <c r="D17" s="17" t="inlineStr">
         <is>
-          <t>5ZI</t>
+          <t>5OP</t>
         </is>
       </c>
       <c r="E17" s="17" t="inlineStr">
@@ -18805,11 +18805,11 @@
       </c>
       <c r="F17" s="17" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>KM</t>
         </is>
       </c>
       <c r="G17" s="18" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H17" s="17" t="inlineStr"/>
       <c r="I17" s="17" t="inlineStr"/>
@@ -18880,7 +18880,7 @@
       </c>
       <c r="D18" s="17" t="inlineStr">
         <is>
-          <t>5OP</t>
+          <t>5ZI</t>
         </is>
       </c>
       <c r="E18" s="17" t="inlineStr">
@@ -18890,11 +18890,11 @@
       </c>
       <c r="F18" s="17" t="inlineStr">
         <is>
-          <t>KM</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="G18" s="18" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H18" s="17" t="inlineStr"/>
       <c r="I18" s="17" t="inlineStr"/>
@@ -18906,21 +18906,21 @@
       <c r="O18" s="18" t="inlineStr"/>
       <c r="P18" s="17" t="inlineStr">
         <is>
-          <t>3L 3log</t>
+          <t>2d 2wz</t>
         </is>
       </c>
       <c r="Q18" s="17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>mat</t>
         </is>
       </c>
       <c r="R18" s="17" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>AD</t>
         </is>
       </c>
       <c r="S18" s="18" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="T18" s="17" t="inlineStr"/>
       <c r="U18" s="17" t="inlineStr"/>
@@ -18949,21 +18949,21 @@
       <c r="O19" s="18" t="inlineStr"/>
       <c r="P19" s="17" t="inlineStr">
         <is>
-          <t>2d 2wz</t>
+          <t>3L 3log</t>
         </is>
       </c>
       <c r="Q19" s="17" t="inlineStr">
         <is>
-          <t>mat</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R19" s="17" t="inlineStr">
         <is>
-          <t>AD</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="S19" s="18" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="T19" s="17" t="inlineStr"/>
       <c r="U19" s="17" t="inlineStr"/>
@@ -21867,7 +21867,7 @@
     <col width="13" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="12" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="10" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="12" customWidth="1" min="18" max="18"/>
@@ -30275,7 +30275,7 @@
       <c r="O8" s="18" t="inlineStr"/>
       <c r="P8" s="17" t="inlineStr">
         <is>
-          <t>4A 4ra_log</t>
+          <t>3L 3log</t>
         </is>
       </c>
       <c r="Q8" s="17" t="inlineStr">
@@ -30285,13 +30285,11 @@
       </c>
       <c r="R8" s="17" t="inlineStr">
         <is>
-          <t>PJ</t>
-        </is>
-      </c>
-      <c r="S8" s="18" t="inlineStr">
-        <is>
-          <t>_02</t>
-        </is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="S8" s="18" t="n">
+        <v>210</v>
       </c>
       <c r="T8" s="17" t="inlineStr"/>
       <c r="U8" s="17" t="inlineStr"/>
@@ -30320,7 +30318,7 @@
       <c r="O9" s="18" t="inlineStr"/>
       <c r="P9" s="17" t="inlineStr">
         <is>
-          <t>3L 3log</t>
+          <t>4A 4ra_log</t>
         </is>
       </c>
       <c r="Q9" s="17" t="inlineStr">
@@ -30330,11 +30328,13 @@
       </c>
       <c r="R9" s="17" t="inlineStr">
         <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="S9" s="18" t="n">
-        <v>210</v>
+          <t>PJ</t>
+        </is>
+      </c>
+      <c r="S9" s="18" t="inlineStr">
+        <is>
+          <t>_02</t>
+        </is>
       </c>
       <c r="T9" s="17" t="inlineStr"/>
       <c r="U9" s="17" t="inlineStr"/>
@@ -35677,21 +35677,21 @@
       <c r="S5" s="16" t="inlineStr"/>
       <c r="T5" s="15" t="inlineStr">
         <is>
-          <t>3B 3gas</t>
+          <t>2C 2hot</t>
         </is>
       </c>
       <c r="U5" s="15" t="inlineStr">
         <is>
-          <t>j1</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="V5" s="15" t="inlineStr">
         <is>
-          <t>MŚ</t>
+          <t>KF</t>
         </is>
       </c>
       <c r="W5" s="16" t="n">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" ht="14.3" customHeight="1">
@@ -35720,21 +35720,21 @@
       <c r="S6" s="16" t="inlineStr"/>
       <c r="T6" s="15" t="inlineStr">
         <is>
-          <t>2C 2hot</t>
+          <t>3B 3gas</t>
         </is>
       </c>
       <c r="U6" s="15" t="inlineStr">
         <is>
-          <t>hot</t>
+          <t>j1</t>
         </is>
       </c>
       <c r="V6" s="15" t="inlineStr">
         <is>
-          <t>KF</t>
+          <t>MŚ</t>
         </is>
       </c>
       <c r="W6" s="16" t="n">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" ht="14.3" customHeight="1">
@@ -35765,21 +35765,21 @@
       <c r="S7" s="18" t="inlineStr"/>
       <c r="T7" s="17" t="inlineStr">
         <is>
-          <t>3B 3gas</t>
+          <t>2C 2hot</t>
         </is>
       </c>
       <c r="U7" s="17" t="inlineStr">
         <is>
-          <t>j1</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="V7" s="17" t="inlineStr">
         <is>
-          <t>MŚ</t>
+          <t>KF</t>
         </is>
       </c>
       <c r="W7" s="18" t="n">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" ht="14.3" customHeight="1">
@@ -35808,21 +35808,21 @@
       <c r="S8" s="18" t="inlineStr"/>
       <c r="T8" s="17" t="inlineStr">
         <is>
-          <t>2C 2hot</t>
+          <t>3B 3gas</t>
         </is>
       </c>
       <c r="U8" s="17" t="inlineStr">
         <is>
-          <t>hot</t>
+          <t>j1</t>
         </is>
       </c>
       <c r="V8" s="17" t="inlineStr">
         <is>
-          <t>KF</t>
+          <t>MŚ</t>
         </is>
       </c>
       <c r="W8" s="18" t="n">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" ht="14.3" customHeight="1">
@@ -42495,7 +42495,7 @@
       </c>
       <c r="P9" s="15" t="inlineStr">
         <is>
-          <t>5B 5gas_fry</t>
+          <t>2L 2log</t>
         </is>
       </c>
       <c r="Q9" s="15" t="inlineStr">
@@ -42505,11 +42505,11 @@
       </c>
       <c r="R9" s="15" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SM</t>
         </is>
       </c>
       <c r="S9" s="16" t="n">
-        <v>116</v>
+        <v>7</v>
       </c>
       <c r="T9" s="15" t="inlineStr">
         <is>
@@ -42552,7 +42552,7 @@
       <c r="O10" s="16" t="inlineStr"/>
       <c r="P10" s="15" t="inlineStr">
         <is>
-          <t>2L 2log</t>
+          <t>5B 5gas_fry</t>
         </is>
       </c>
       <c r="Q10" s="15" t="inlineStr">
@@ -42562,11 +42562,11 @@
       </c>
       <c r="R10" s="15" t="inlineStr">
         <is>
-          <t>SM</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="S10" s="16" t="n">
-        <v>7</v>
+        <v>116</v>
       </c>
       <c r="T10" s="15" t="inlineStr"/>
       <c r="U10" s="15" t="inlineStr"/>
@@ -42741,7 +42741,7 @@
       </c>
       <c r="P13" s="15" t="inlineStr">
         <is>
-          <t>4A 4ra_log</t>
+          <t>3d 3wz</t>
         </is>
       </c>
       <c r="Q13" s="15" t="inlineStr">
@@ -42751,11 +42751,11 @@
       </c>
       <c r="R13" s="15" t="inlineStr">
         <is>
-          <t>#re4</t>
+          <t>SM</t>
         </is>
       </c>
       <c r="S13" s="16" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="T13" s="15" t="inlineStr">
         <is>
@@ -42798,7 +42798,7 @@
       <c r="O14" s="16" t="inlineStr"/>
       <c r="P14" s="15" t="inlineStr">
         <is>
-          <t>4B 4gas_fry</t>
+          <t>4A 4ra_log</t>
         </is>
       </c>
       <c r="Q14" s="15" t="inlineStr">
@@ -42855,7 +42855,7 @@
       <c r="O15" s="16" t="inlineStr"/>
       <c r="P15" s="15" t="inlineStr">
         <is>
-          <t>3d 3wz</t>
+          <t>4B 4gas_fry</t>
         </is>
       </c>
       <c r="Q15" s="15" t="inlineStr">
@@ -42865,11 +42865,11 @@
       </c>
       <c r="R15" s="15" t="inlineStr">
         <is>
-          <t>SM</t>
+          <t>#re4</t>
         </is>
       </c>
       <c r="S15" s="16" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="T15" s="15" t="inlineStr"/>
       <c r="U15" s="15" t="inlineStr"/>
@@ -42946,7 +42946,7 @@
       </c>
       <c r="T16" s="17" t="inlineStr">
         <is>
-          <t>4A 4ra_log</t>
+          <t>2B 2gas</t>
         </is>
       </c>
       <c r="U16" s="17" t="inlineStr">
@@ -42956,11 +42956,11 @@
       </c>
       <c r="V16" s="17" t="inlineStr">
         <is>
-          <t>#re4</t>
+          <t>#re2</t>
         </is>
       </c>
       <c r="W16" s="18" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" ht="14.3" customHeight="1">
@@ -43003,7 +43003,7 @@
       </c>
       <c r="T17" s="17" t="inlineStr">
         <is>
-          <t>2B 2gas</t>
+          <t>2C 2hot</t>
         </is>
       </c>
       <c r="U17" s="17" t="inlineStr">
@@ -43046,7 +43046,7 @@
       <c r="S18" s="18" t="inlineStr"/>
       <c r="T18" s="17" t="inlineStr">
         <is>
-          <t>4B 4gas_fry</t>
+          <t>4A 4ra_log</t>
         </is>
       </c>
       <c r="U18" s="17" t="inlineStr">
@@ -43089,7 +43089,7 @@
       <c r="S19" s="18" t="inlineStr"/>
       <c r="T19" s="17" t="inlineStr">
         <is>
-          <t>2C 2hot</t>
+          <t>4B 4gas_fry</t>
         </is>
       </c>
       <c r="U19" s="17" t="inlineStr">
@@ -43099,11 +43099,11 @@
       </c>
       <c r="V19" s="17" t="inlineStr">
         <is>
-          <t>#re2</t>
+          <t>#re4</t>
         </is>
       </c>
       <c r="W19" s="18" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" ht="14.3" customHeight="1">
@@ -45437,102 +45437,102 @@
       </c>
       <c r="D5" s="15" t="inlineStr">
         <is>
-          <t>3S 3sport</t>
+          <t>1d 1wz</t>
         </is>
       </c>
       <c r="E5" s="15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>j1</t>
         </is>
       </c>
       <c r="F5" s="15" t="inlineStr">
         <is>
+          <t>KZ</t>
+        </is>
+      </c>
+      <c r="G5" s="16" t="inlineStr">
+        <is>
+          <t>s2</t>
+        </is>
+      </c>
+      <c r="H5" s="15" t="inlineStr">
+        <is>
+          <t>2A 2ek_fry</t>
+        </is>
+      </c>
+      <c r="I5" s="15" t="inlineStr">
+        <is>
+          <t>fry</t>
+        </is>
+      </c>
+      <c r="J5" s="15" t="inlineStr">
+        <is>
+          <t>KZ</t>
+        </is>
+      </c>
+      <c r="K5" s="16" t="inlineStr">
+        <is>
+          <t>s2</t>
+        </is>
+      </c>
+      <c r="L5" s="15" t="inlineStr">
+        <is>
+          <t>2A 2ek_fry</t>
+        </is>
+      </c>
+      <c r="M5" s="15" t="inlineStr">
+        <is>
+          <t>fry</t>
+        </is>
+      </c>
+      <c r="N5" s="15" t="inlineStr">
+        <is>
+          <t>KZ</t>
+        </is>
+      </c>
+      <c r="O5" s="16" t="inlineStr">
+        <is>
+          <t>s2</t>
+        </is>
+      </c>
+      <c r="P5" s="15" t="inlineStr">
+        <is>
+          <t>2B 2gas</t>
+        </is>
+      </c>
+      <c r="Q5" s="15" t="inlineStr">
+        <is>
+          <t>j1</t>
+        </is>
+      </c>
+      <c r="R5" s="15" t="inlineStr">
+        <is>
           <t>MP</t>
         </is>
       </c>
-      <c r="G5" s="16" t="inlineStr">
-        <is>
-          <t>st1</t>
-        </is>
-      </c>
-      <c r="H5" s="15" t="inlineStr">
-        <is>
-          <t>2A 2ek_fry</t>
-        </is>
-      </c>
-      <c r="I5" s="15" t="inlineStr">
-        <is>
-          <t>fry</t>
-        </is>
-      </c>
-      <c r="J5" s="15" t="inlineStr">
-        <is>
-          <t>KZ</t>
-        </is>
-      </c>
-      <c r="K5" s="16" t="inlineStr">
+      <c r="S5" s="16" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="T5" s="15" t="inlineStr">
+        <is>
+          <t>3d 3wz</t>
+        </is>
+      </c>
+      <c r="U5" s="15" t="inlineStr">
+        <is>
+          <t>j1</t>
+        </is>
+      </c>
+      <c r="V5" s="15" t="inlineStr">
+        <is>
+          <t>JB</t>
+        </is>
+      </c>
+      <c r="W5" s="16" t="inlineStr">
         <is>
           <t>s2</t>
-        </is>
-      </c>
-      <c r="L5" s="15" t="inlineStr">
-        <is>
-          <t>2A 2ek_fry</t>
-        </is>
-      </c>
-      <c r="M5" s="15" t="inlineStr">
-        <is>
-          <t>fry</t>
-        </is>
-      </c>
-      <c r="N5" s="15" t="inlineStr">
-        <is>
-          <t>KZ</t>
-        </is>
-      </c>
-      <c r="O5" s="16" t="inlineStr">
-        <is>
-          <t>s2</t>
-        </is>
-      </c>
-      <c r="P5" s="15" t="inlineStr">
-        <is>
-          <t>2B 2gas</t>
-        </is>
-      </c>
-      <c r="Q5" s="15" t="inlineStr">
-        <is>
-          <t>j1</t>
-        </is>
-      </c>
-      <c r="R5" s="15" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
-      </c>
-      <c r="S5" s="16" t="inlineStr">
-        <is>
-          <t>s1</t>
-        </is>
-      </c>
-      <c r="T5" s="15" t="inlineStr">
-        <is>
-          <t>4B 4gas_fry</t>
-        </is>
-      </c>
-      <c r="U5" s="15" t="inlineStr">
-        <is>
-          <t>fry</t>
-        </is>
-      </c>
-      <c r="V5" s="15" t="inlineStr">
-        <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="W5" s="16" t="inlineStr">
-        <is>
-          <t>s1</t>
         </is>
       </c>
     </row>
@@ -45546,102 +45546,102 @@
       </c>
       <c r="D6" s="15" t="inlineStr">
         <is>
-          <t>5B 5gas_fry</t>
+          <t>3S 3sport</t>
         </is>
       </c>
       <c r="E6" s="15" t="inlineStr">
         <is>
-          <t>gas</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F6" s="15" t="inlineStr">
         <is>
-          <t>RT</t>
+          <t>MP</t>
         </is>
       </c>
       <c r="G6" s="16" t="inlineStr">
         <is>
+          <t>st1</t>
+        </is>
+      </c>
+      <c r="H6" s="15" t="inlineStr">
+        <is>
+          <t>3L 3log</t>
+        </is>
+      </c>
+      <c r="I6" s="15" t="inlineStr">
+        <is>
+          <t>log</t>
+        </is>
+      </c>
+      <c r="J6" s="15" t="inlineStr">
+        <is>
+          <t>JB</t>
+        </is>
+      </c>
+      <c r="K6" s="16" t="inlineStr">
+        <is>
           <t>s1</t>
         </is>
       </c>
-      <c r="H6" s="15" t="inlineStr">
-        <is>
-          <t>3L 3log</t>
-        </is>
-      </c>
-      <c r="I6" s="15" t="inlineStr">
+      <c r="L6" s="15" t="inlineStr">
+        <is>
+          <t>5A 5ek_log</t>
+        </is>
+      </c>
+      <c r="M6" s="15" t="inlineStr">
         <is>
           <t>log</t>
         </is>
       </c>
-      <c r="J6" s="15" t="inlineStr">
-        <is>
-          <t>JB</t>
-        </is>
-      </c>
-      <c r="K6" s="16" t="inlineStr">
+      <c r="N6" s="15" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="O6" s="16" t="inlineStr">
         <is>
           <t>s1</t>
         </is>
       </c>
-      <c r="L6" s="15" t="inlineStr">
-        <is>
-          <t>5A 5ek_log</t>
-        </is>
-      </c>
-      <c r="M6" s="15" t="inlineStr">
-        <is>
-          <t>log</t>
-        </is>
-      </c>
-      <c r="N6" s="15" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
-      </c>
-      <c r="O6" s="16" t="inlineStr">
+      <c r="P6" s="15" t="inlineStr">
+        <is>
+          <t>3e 3wz</t>
+        </is>
+      </c>
+      <c r="Q6" s="15" t="inlineStr">
+        <is>
+          <t>j1</t>
+        </is>
+      </c>
+      <c r="R6" s="15" t="inlineStr">
+        <is>
+          <t>KZ</t>
+        </is>
+      </c>
+      <c r="S6" s="16" t="inlineStr">
+        <is>
+          <t>s2</t>
+        </is>
+      </c>
+      <c r="T6" s="15" t="inlineStr">
+        <is>
+          <t>4B 4gas_fry</t>
+        </is>
+      </c>
+      <c r="U6" s="15" t="inlineStr">
+        <is>
+          <t>fry</t>
+        </is>
+      </c>
+      <c r="V6" s="15" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+      <c r="W6" s="16" t="inlineStr">
         <is>
           <t>s1</t>
-        </is>
-      </c>
-      <c r="P6" s="15" t="inlineStr">
-        <is>
-          <t>3e 3wz</t>
-        </is>
-      </c>
-      <c r="Q6" s="15" t="inlineStr">
-        <is>
-          <t>j1</t>
-        </is>
-      </c>
-      <c r="R6" s="15" t="inlineStr">
-        <is>
-          <t>KZ</t>
-        </is>
-      </c>
-      <c r="S6" s="16" t="inlineStr">
-        <is>
-          <t>s2</t>
-        </is>
-      </c>
-      <c r="T6" s="15" t="inlineStr">
-        <is>
-          <t>3d 3wz</t>
-        </is>
-      </c>
-      <c r="U6" s="15" t="inlineStr">
-        <is>
-          <t>j1</t>
-        </is>
-      </c>
-      <c r="V6" s="15" t="inlineStr">
-        <is>
-          <t>JB</t>
-        </is>
-      </c>
-      <c r="W6" s="16" t="inlineStr">
-        <is>
-          <t>s2</t>
         </is>
       </c>
     </row>
@@ -45655,22 +45655,22 @@
       </c>
       <c r="D7" s="15" t="inlineStr">
         <is>
-          <t>1d 1wz</t>
+          <t>5B 5gas_fry</t>
         </is>
       </c>
       <c r="E7" s="15" t="inlineStr">
         <is>
-          <t>j1</t>
+          <t>gas</t>
         </is>
       </c>
       <c r="F7" s="15" t="inlineStr">
         <is>
-          <t>KZ</t>
+          <t>RT</t>
         </is>
       </c>
       <c r="G7" s="16" t="inlineStr">
         <is>
-          <t>s2</t>
+          <t>s1</t>
         </is>
       </c>
       <c r="H7" s="15" t="inlineStr"/>
@@ -45702,102 +45702,102 @@
       </c>
       <c r="D8" s="17" t="inlineStr">
         <is>
-          <t>3S 3sport</t>
+          <t>1d 1wz</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>j1</t>
         </is>
       </c>
       <c r="F8" s="17" t="inlineStr">
         <is>
+          <t>KZ</t>
+        </is>
+      </c>
+      <c r="G8" s="18" t="inlineStr">
+        <is>
+          <t>s2</t>
+        </is>
+      </c>
+      <c r="H8" s="17" t="inlineStr">
+        <is>
+          <t>2A 2ek_fry</t>
+        </is>
+      </c>
+      <c r="I8" s="17" t="inlineStr">
+        <is>
+          <t>fry</t>
+        </is>
+      </c>
+      <c r="J8" s="17" t="inlineStr">
+        <is>
+          <t>KZ</t>
+        </is>
+      </c>
+      <c r="K8" s="18" t="inlineStr">
+        <is>
+          <t>s2</t>
+        </is>
+      </c>
+      <c r="L8" s="17" t="inlineStr">
+        <is>
+          <t>1d 1wz</t>
+        </is>
+      </c>
+      <c r="M8" s="17" t="inlineStr">
+        <is>
+          <t>j2</t>
+        </is>
+      </c>
+      <c r="N8" s="17" t="inlineStr">
+        <is>
+          <t>RT</t>
+        </is>
+      </c>
+      <c r="O8" s="18" t="inlineStr">
+        <is>
+          <t>s2</t>
+        </is>
+      </c>
+      <c r="P8" s="17" t="inlineStr">
+        <is>
+          <t>2B 2gas</t>
+        </is>
+      </c>
+      <c r="Q8" s="17" t="inlineStr">
+        <is>
+          <t>j1</t>
+        </is>
+      </c>
+      <c r="R8" s="17" t="inlineStr">
+        <is>
           <t>MP</t>
         </is>
       </c>
-      <c r="G8" s="18" t="inlineStr">
-        <is>
-          <t>st1</t>
-        </is>
-      </c>
-      <c r="H8" s="17" t="inlineStr">
-        <is>
-          <t>2A 2ek_fry</t>
-        </is>
-      </c>
-      <c r="I8" s="17" t="inlineStr">
-        <is>
-          <t>fry</t>
-        </is>
-      </c>
-      <c r="J8" s="17" t="inlineStr">
-        <is>
-          <t>KZ</t>
-        </is>
-      </c>
-      <c r="K8" s="18" t="inlineStr">
+      <c r="S8" s="18" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="T8" s="17" t="inlineStr">
+        <is>
+          <t>3d 3wz</t>
+        </is>
+      </c>
+      <c r="U8" s="17" t="inlineStr">
+        <is>
+          <t>j1</t>
+        </is>
+      </c>
+      <c r="V8" s="17" t="inlineStr">
+        <is>
+          <t>JB</t>
+        </is>
+      </c>
+      <c r="W8" s="18" t="inlineStr">
         <is>
           <t>s2</t>
-        </is>
-      </c>
-      <c r="L8" s="17" t="inlineStr">
-        <is>
-          <t>5A 5ek_log</t>
-        </is>
-      </c>
-      <c r="M8" s="17" t="inlineStr">
-        <is>
-          <t>log</t>
-        </is>
-      </c>
-      <c r="N8" s="17" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
-      </c>
-      <c r="O8" s="18" t="inlineStr">
-        <is>
-          <t>s1</t>
-        </is>
-      </c>
-      <c r="P8" s="17" t="inlineStr">
-        <is>
-          <t>2B 2gas</t>
-        </is>
-      </c>
-      <c r="Q8" s="17" t="inlineStr">
-        <is>
-          <t>j1</t>
-        </is>
-      </c>
-      <c r="R8" s="17" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
-      </c>
-      <c r="S8" s="18" t="inlineStr">
-        <is>
-          <t>s1</t>
-        </is>
-      </c>
-      <c r="T8" s="17" t="inlineStr">
-        <is>
-          <t>4B 4gas_fry</t>
-        </is>
-      </c>
-      <c r="U8" s="17" t="inlineStr">
-        <is>
-          <t>fry</t>
-        </is>
-      </c>
-      <c r="V8" s="17" t="inlineStr">
-        <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="W8" s="18" t="inlineStr">
-        <is>
-          <t>s1</t>
         </is>
       </c>
     </row>
@@ -45851,62 +45851,62 @@
       </c>
       <c r="L9" s="17" t="inlineStr">
         <is>
-          <t>1d 1wz</t>
+          <t>5A 5ek_log</t>
         </is>
       </c>
       <c r="M9" s="17" t="inlineStr">
         <is>
-          <t>j2</t>
+          <t>log</t>
         </is>
       </c>
       <c r="N9" s="17" t="inlineStr">
         <is>
-          <t>RT</t>
+          <t>MP</t>
         </is>
       </c>
       <c r="O9" s="18" t="inlineStr">
         <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="P9" s="17" t="inlineStr">
+        <is>
+          <t>3e 3wz</t>
+        </is>
+      </c>
+      <c r="Q9" s="17" t="inlineStr">
+        <is>
+          <t>j1</t>
+        </is>
+      </c>
+      <c r="R9" s="17" t="inlineStr">
+        <is>
+          <t>KZ</t>
+        </is>
+      </c>
+      <c r="S9" s="18" t="inlineStr">
+        <is>
           <t>s2</t>
         </is>
       </c>
-      <c r="P9" s="17" t="inlineStr">
-        <is>
-          <t>3e 3wz</t>
-        </is>
-      </c>
-      <c r="Q9" s="17" t="inlineStr">
-        <is>
-          <t>j1</t>
-        </is>
-      </c>
-      <c r="R9" s="17" t="inlineStr">
-        <is>
-          <t>KZ</t>
-        </is>
-      </c>
-      <c r="S9" s="18" t="inlineStr">
-        <is>
-          <t>s2</t>
-        </is>
-      </c>
       <c r="T9" s="17" t="inlineStr">
         <is>
-          <t>3d 3wz</t>
+          <t>4B 4gas_fry</t>
         </is>
       </c>
       <c r="U9" s="17" t="inlineStr">
         <is>
-          <t>j1</t>
+          <t>fry</t>
         </is>
       </c>
       <c r="V9" s="17" t="inlineStr">
         <is>
-          <t>JB</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="W9" s="18" t="inlineStr">
         <is>
-          <t>s2</t>
+          <t>s1</t>
         </is>
       </c>
     </row>
@@ -45920,22 +45920,22 @@
       </c>
       <c r="D10" s="17" t="inlineStr">
         <is>
-          <t>5B 5gas_fry</t>
+          <t>3S 3sport</t>
         </is>
       </c>
       <c r="E10" s="17" t="inlineStr">
         <is>
-          <t>gas</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F10" s="17" t="inlineStr">
         <is>
-          <t>RT</t>
+          <t>MP</t>
         </is>
       </c>
       <c r="G10" s="18" t="inlineStr">
         <is>
-          <t>s3</t>
+          <t>st1</t>
         </is>
       </c>
       <c r="H10" s="17" t="inlineStr">
@@ -45981,22 +45981,22 @@
       </c>
       <c r="D11" s="17" t="inlineStr">
         <is>
-          <t>1d 1wz</t>
+          <t>5B 5gas_fry</t>
         </is>
       </c>
       <c r="E11" s="17" t="inlineStr">
         <is>
-          <t>j1</t>
+          <t>gas</t>
         </is>
       </c>
       <c r="F11" s="17" t="inlineStr">
         <is>
-          <t>KZ</t>
+          <t>RT</t>
         </is>
       </c>
       <c r="G11" s="18" t="inlineStr">
         <is>
-          <t>s2</t>
+          <t>s3</t>
         </is>
       </c>
       <c r="H11" s="17" t="inlineStr"/>
@@ -46028,34 +46028,34 @@
       </c>
       <c r="D12" s="15" t="inlineStr">
         <is>
-          <t>3S 3sport</t>
+          <t>1d 1wz</t>
         </is>
       </c>
       <c r="E12" s="15" t="inlineStr">
         <is>
+          <t>j2</t>
+        </is>
+      </c>
+      <c r="F12" s="15" t="inlineStr">
+        <is>
+          <t>RT</t>
+        </is>
+      </c>
+      <c r="G12" s="16" t="inlineStr">
+        <is>
+          <t>s2</t>
+        </is>
+      </c>
+      <c r="H12" s="15" t="inlineStr">
+        <is>
+          <t>3A 3ra_fry</t>
+        </is>
+      </c>
+      <c r="I12" s="15" t="inlineStr">
+        <is>
           <t>-</t>
         </is>
       </c>
-      <c r="F12" s="15" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
-      </c>
-      <c r="G12" s="16" t="inlineStr">
-        <is>
-          <t>st1</t>
-        </is>
-      </c>
-      <c r="H12" s="15" t="inlineStr">
-        <is>
-          <t>3A 3ra_fry</t>
-        </is>
-      </c>
-      <c r="I12" s="15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J12" s="15" t="inlineStr">
         <is>
           <t>JB</t>
@@ -46068,22 +46068,22 @@
       </c>
       <c r="L12" s="15" t="inlineStr">
         <is>
-          <t>4B 4gas_fry</t>
+          <t>1d 1wz</t>
         </is>
       </c>
       <c r="M12" s="15" t="inlineStr">
         <is>
-          <t>gas</t>
+          <t>j2</t>
         </is>
       </c>
       <c r="N12" s="15" t="inlineStr">
         <is>
-          <t>JB</t>
+          <t>RT</t>
         </is>
       </c>
       <c r="O12" s="16" t="inlineStr">
         <is>
-          <t>s1</t>
+          <t>s2</t>
         </is>
       </c>
       <c r="P12" s="15" t="inlineStr">
@@ -46177,22 +46177,22 @@
       </c>
       <c r="L13" s="15" t="inlineStr">
         <is>
-          <t>1d 1wz</t>
+          <t>4B 4gas_fry</t>
         </is>
       </c>
       <c r="M13" s="15" t="inlineStr">
         <is>
-          <t>j2</t>
+          <t>gas</t>
         </is>
       </c>
       <c r="N13" s="15" t="inlineStr">
         <is>
-          <t>RT</t>
+          <t>JB</t>
         </is>
       </c>
       <c r="O13" s="16" t="inlineStr">
         <is>
-          <t>s2</t>
+          <t>s1</t>
         </is>
       </c>
       <c r="P13" s="15" t="inlineStr">
@@ -46246,22 +46246,22 @@
       </c>
       <c r="D14" s="15" t="inlineStr">
         <is>
-          <t>1d 1wz</t>
+          <t>3S 3sport</t>
         </is>
       </c>
       <c r="E14" s="15" t="inlineStr">
         <is>
-          <t>j2</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F14" s="15" t="inlineStr">
         <is>
-          <t>RT</t>
+          <t>MP</t>
         </is>
       </c>
       <c r="G14" s="16" t="inlineStr">
         <is>
-          <t>s2</t>
+          <t>st1</t>
         </is>
       </c>
       <c r="H14" s="15" t="inlineStr"/>
@@ -46333,62 +46333,62 @@
       </c>
       <c r="L15" s="17" t="inlineStr">
         <is>
-          <t>4A 4ra_log</t>
+          <t>1d 1wz</t>
         </is>
       </c>
       <c r="M15" s="17" t="inlineStr">
         <is>
-          <t>log</t>
+          <t>j1</t>
         </is>
       </c>
       <c r="N15" s="17" t="inlineStr">
         <is>
-          <t>JB</t>
+          <t>KZ</t>
         </is>
       </c>
       <c r="O15" s="18" t="inlineStr">
         <is>
+          <t>s2</t>
+        </is>
+      </c>
+      <c r="P15" s="17" t="inlineStr">
+        <is>
+          <t>1B 1gas_log</t>
+        </is>
+      </c>
+      <c r="Q15" s="17" t="inlineStr">
+        <is>
+          <t>gas</t>
+        </is>
+      </c>
+      <c r="R15" s="17" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="S15" s="18" t="inlineStr">
+        <is>
+          <t>s2</t>
+        </is>
+      </c>
+      <c r="T15" s="17" t="inlineStr">
+        <is>
+          <t>2d 2wz</t>
+        </is>
+      </c>
+      <c r="U15" s="17" t="inlineStr">
+        <is>
+          <t>j1</t>
+        </is>
+      </c>
+      <c r="V15" s="17" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+      <c r="W15" s="18" t="inlineStr">
+        <is>
           <t>s1</t>
-        </is>
-      </c>
-      <c r="P15" s="17" t="inlineStr">
-        <is>
-          <t>1B 1gas_log</t>
-        </is>
-      </c>
-      <c r="Q15" s="17" t="inlineStr">
-        <is>
-          <t>gas</t>
-        </is>
-      </c>
-      <c r="R15" s="17" t="inlineStr">
-        <is>
-          <t>MG</t>
-        </is>
-      </c>
-      <c r="S15" s="18" t="inlineStr">
-        <is>
-          <t>s2</t>
-        </is>
-      </c>
-      <c r="T15" s="17" t="inlineStr">
-        <is>
-          <t>3B 3gas</t>
-        </is>
-      </c>
-      <c r="U15" s="17" t="inlineStr">
-        <is>
-          <t>j1</t>
-        </is>
-      </c>
-      <c r="V15" s="17" t="inlineStr">
-        <is>
-          <t>MG</t>
-        </is>
-      </c>
-      <c r="W15" s="18" t="inlineStr">
-        <is>
-          <t>s3</t>
         </is>
       </c>
     </row>
@@ -46426,62 +46426,62 @@
       <c r="K16" s="18" t="inlineStr"/>
       <c r="L16" s="17" t="inlineStr">
         <is>
-          <t>1d 1wz</t>
+          <t>4A 4ra_log</t>
         </is>
       </c>
       <c r="M16" s="17" t="inlineStr">
         <is>
+          <t>log</t>
+        </is>
+      </c>
+      <c r="N16" s="17" t="inlineStr">
+        <is>
+          <t>JB</t>
+        </is>
+      </c>
+      <c r="O16" s="18" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="P16" s="17" t="inlineStr">
+        <is>
+          <t>3d 3wz</t>
+        </is>
+      </c>
+      <c r="Q16" s="17" t="inlineStr">
+        <is>
           <t>j1</t>
         </is>
       </c>
-      <c r="N16" s="17" t="inlineStr">
-        <is>
-          <t>KZ</t>
-        </is>
-      </c>
-      <c r="O16" s="18" t="inlineStr">
-        <is>
-          <t>s2</t>
-        </is>
-      </c>
-      <c r="P16" s="17" t="inlineStr">
-        <is>
-          <t>3d 3wz</t>
-        </is>
-      </c>
-      <c r="Q16" s="17" t="inlineStr">
+      <c r="R16" s="17" t="inlineStr">
+        <is>
+          <t>JB</t>
+        </is>
+      </c>
+      <c r="S16" s="18" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="T16" s="17" t="inlineStr">
+        <is>
+          <t>3B 3gas</t>
+        </is>
+      </c>
+      <c r="U16" s="17" t="inlineStr">
         <is>
           <t>j1</t>
         </is>
       </c>
-      <c r="R16" s="17" t="inlineStr">
-        <is>
-          <t>JB</t>
-        </is>
-      </c>
-      <c r="S16" s="18" t="inlineStr">
-        <is>
-          <t>s1</t>
-        </is>
-      </c>
-      <c r="T16" s="17" t="inlineStr">
-        <is>
-          <t>4B 4gas_fry</t>
-        </is>
-      </c>
-      <c r="U16" s="17" t="inlineStr">
-        <is>
-          <t>gas</t>
-        </is>
-      </c>
       <c r="V16" s="17" t="inlineStr">
         <is>
-          <t>JB</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="W16" s="18" t="inlineStr">
         <is>
-          <t>s2</t>
+          <t>s3</t>
         </is>
       </c>
     </row>
@@ -46511,22 +46511,22 @@
       <c r="S17" s="18" t="inlineStr"/>
       <c r="T17" s="17" t="inlineStr">
         <is>
-          <t>2d 2wz</t>
+          <t>4B 4gas_fry</t>
         </is>
       </c>
       <c r="U17" s="17" t="inlineStr">
         <is>
-          <t>j1</t>
+          <t>gas</t>
         </is>
       </c>
       <c r="V17" s="17" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>JB</t>
         </is>
       </c>
       <c r="W17" s="18" t="inlineStr">
         <is>
-          <t>s1</t>
+          <t>s2</t>
         </is>
       </c>
     </row>
@@ -46542,102 +46542,102 @@
       </c>
       <c r="D18" s="15" t="inlineStr">
         <is>
-          <t>5B 5gas_fry</t>
+          <t>2L 2log</t>
         </is>
       </c>
       <c r="E18" s="15" t="inlineStr">
         <is>
-          <t>fry</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F18" s="15" t="inlineStr">
         <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="G18" s="16" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="H18" s="15" t="inlineStr">
+        <is>
+          <t>4A 4ra_log</t>
+        </is>
+      </c>
+      <c r="I18" s="15" t="inlineStr">
+        <is>
+          <t>ra</t>
+        </is>
+      </c>
+      <c r="J18" s="15" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="K18" s="16" t="inlineStr">
+        <is>
+          <t>s2</t>
+        </is>
+      </c>
+      <c r="L18" s="15" t="inlineStr">
+        <is>
+          <t>2C 2hot</t>
+        </is>
+      </c>
+      <c r="M18" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N18" s="15" t="inlineStr">
+        <is>
           <t>RB</t>
         </is>
       </c>
-      <c r="G18" s="16" t="inlineStr">
+      <c r="O18" s="16" t="inlineStr">
         <is>
           <t>s3</t>
         </is>
       </c>
-      <c r="H18" s="15" t="inlineStr">
-        <is>
-          <t>4A 4ra_log</t>
-        </is>
-      </c>
-      <c r="I18" s="15" t="inlineStr">
-        <is>
-          <t>ra</t>
-        </is>
-      </c>
-      <c r="J18" s="15" t="inlineStr">
-        <is>
-          <t>MG</t>
-        </is>
-      </c>
-      <c r="K18" s="16" t="inlineStr">
+      <c r="P18" s="15" t="inlineStr">
+        <is>
+          <t>2d 2wz</t>
+        </is>
+      </c>
+      <c r="Q18" s="15" t="inlineStr">
+        <is>
+          <t>j2</t>
+        </is>
+      </c>
+      <c r="R18" s="15" t="inlineStr">
+        <is>
+          <t>RT</t>
+        </is>
+      </c>
+      <c r="S18" s="16" t="inlineStr">
         <is>
           <t>s2</t>
         </is>
       </c>
-      <c r="L18" s="15" t="inlineStr">
-        <is>
-          <t>4A 4ra_log</t>
-        </is>
-      </c>
-      <c r="M18" s="15" t="inlineStr">
-        <is>
-          <t>log</t>
-        </is>
-      </c>
-      <c r="N18" s="15" t="inlineStr">
-        <is>
-          <t>JB</t>
-        </is>
-      </c>
-      <c r="O18" s="16" t="inlineStr">
-        <is>
-          <t>s1</t>
-        </is>
-      </c>
-      <c r="P18" s="15" t="inlineStr">
-        <is>
-          <t>3B 3gas</t>
-        </is>
-      </c>
-      <c r="Q18" s="15" t="inlineStr">
-        <is>
-          <t>j1</t>
-        </is>
-      </c>
-      <c r="R18" s="15" t="inlineStr">
-        <is>
-          <t>MG</t>
-        </is>
-      </c>
-      <c r="S18" s="16" t="inlineStr">
-        <is>
-          <t>s1</t>
-        </is>
-      </c>
       <c r="T18" s="15" t="inlineStr">
         <is>
-          <t>4A 4ra_log</t>
+          <t>3C 3hot</t>
         </is>
       </c>
       <c r="U18" s="15" t="inlineStr">
         <is>
-          <t>ra</t>
+          <t>-</t>
         </is>
       </c>
       <c r="V18" s="15" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="W18" s="16" t="inlineStr">
         <is>
-          <t>s2</t>
+          <t>st2</t>
         </is>
       </c>
     </row>
@@ -46651,102 +46651,102 @@
       </c>
       <c r="D19" s="15" t="inlineStr">
         <is>
-          <t>2L 2log</t>
+          <t>3L 3log</t>
         </is>
       </c>
       <c r="E19" s="15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>log</t>
         </is>
       </c>
       <c r="F19" s="15" t="inlineStr">
         <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="G19" s="16" t="inlineStr">
+        <is>
+          <t>s2</t>
+        </is>
+      </c>
+      <c r="H19" s="15" t="inlineStr">
+        <is>
+          <t>5A 5ek_log</t>
+        </is>
+      </c>
+      <c r="I19" s="15" t="inlineStr">
+        <is>
+          <t>log</t>
+        </is>
+      </c>
+      <c r="J19" s="15" t="inlineStr">
+        <is>
           <t>MP</t>
         </is>
       </c>
-      <c r="G19" s="16" t="inlineStr">
+      <c r="K19" s="16" t="inlineStr">
         <is>
           <t>s1</t>
         </is>
       </c>
-      <c r="H19" s="15" t="inlineStr">
-        <is>
-          <t>5A 5ek_log</t>
-        </is>
-      </c>
-      <c r="I19" s="15" t="inlineStr">
+      <c r="L19" s="15" t="inlineStr">
+        <is>
+          <t>4A 4ra_log</t>
+        </is>
+      </c>
+      <c r="M19" s="15" t="inlineStr">
         <is>
           <t>log</t>
         </is>
       </c>
-      <c r="J19" s="15" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
-      </c>
-      <c r="K19" s="16" t="inlineStr">
+      <c r="N19" s="15" t="inlineStr">
+        <is>
+          <t>JB</t>
+        </is>
+      </c>
+      <c r="O19" s="16" t="inlineStr">
         <is>
           <t>s1</t>
         </is>
       </c>
-      <c r="L19" s="15" t="inlineStr">
-        <is>
-          <t>5B 5gas_fry</t>
-        </is>
-      </c>
-      <c r="M19" s="15" t="inlineStr">
-        <is>
-          <t>gas</t>
-        </is>
-      </c>
-      <c r="N19" s="15" t="inlineStr">
-        <is>
-          <t>RT</t>
-        </is>
-      </c>
-      <c r="O19" s="16" t="inlineStr">
+      <c r="P19" s="15" t="inlineStr">
+        <is>
+          <t>3B 3gas</t>
+        </is>
+      </c>
+      <c r="Q19" s="15" t="inlineStr">
+        <is>
+          <t>j1</t>
+        </is>
+      </c>
+      <c r="R19" s="15" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="S19" s="16" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="T19" s="15" t="inlineStr">
+        <is>
+          <t>4A 4ra_log</t>
+        </is>
+      </c>
+      <c r="U19" s="15" t="inlineStr">
+        <is>
+          <t>ra</t>
+        </is>
+      </c>
+      <c r="V19" s="15" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="W19" s="16" t="inlineStr">
         <is>
           <t>s2</t>
-        </is>
-      </c>
-      <c r="P19" s="15" t="inlineStr">
-        <is>
-          <t>2d 2wz</t>
-        </is>
-      </c>
-      <c r="Q19" s="15" t="inlineStr">
-        <is>
-          <t>j2</t>
-        </is>
-      </c>
-      <c r="R19" s="15" t="inlineStr">
-        <is>
-          <t>RT</t>
-        </is>
-      </c>
-      <c r="S19" s="16" t="inlineStr">
-        <is>
-          <t>s2</t>
-        </is>
-      </c>
-      <c r="T19" s="15" t="inlineStr">
-        <is>
-          <t>3C 3hot</t>
-        </is>
-      </c>
-      <c r="U19" s="15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V19" s="15" t="inlineStr">
-        <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="W19" s="16" t="inlineStr">
-        <is>
-          <t>st2</t>
         </is>
       </c>
     </row>
@@ -46760,22 +46760,22 @@
       </c>
       <c r="D20" s="15" t="inlineStr">
         <is>
-          <t>3L 3log</t>
+          <t>5B 5gas_fry</t>
         </is>
       </c>
       <c r="E20" s="15" t="inlineStr">
         <is>
-          <t>log</t>
+          <t>fry</t>
         </is>
       </c>
       <c r="F20" s="15" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="G20" s="16" t="inlineStr">
         <is>
-          <t>s2</t>
+          <t>s3</t>
         </is>
       </c>
       <c r="H20" s="15" t="inlineStr"/>
@@ -46784,22 +46784,22 @@
       <c r="K20" s="16" t="inlineStr"/>
       <c r="L20" s="15" t="inlineStr">
         <is>
-          <t>2C 2hot</t>
+          <t>5B 5gas_fry</t>
         </is>
       </c>
       <c r="M20" s="15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>gas</t>
         </is>
       </c>
       <c r="N20" s="15" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>RT</t>
         </is>
       </c>
       <c r="O20" s="16" t="inlineStr">
         <is>
-          <t>s3</t>
+          <t>s2</t>
         </is>
       </c>
       <c r="P20" s="15" t="inlineStr">
@@ -46859,82 +46859,82 @@
       </c>
       <c r="H21" s="17" t="inlineStr">
         <is>
-          <t>4A 4ra_log</t>
+          <t>3C 3hot</t>
         </is>
       </c>
       <c r="I21" s="17" t="inlineStr">
         <is>
-          <t>ra</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J21" s="17" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="K21" s="18" t="inlineStr">
         <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="L21" s="17" t="inlineStr">
+        <is>
+          <t>2C 2hot</t>
+        </is>
+      </c>
+      <c r="M21" s="17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N21" s="17" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+      <c r="O21" s="18" t="inlineStr">
+        <is>
+          <t>s3</t>
+        </is>
+      </c>
+      <c r="P21" s="17" t="inlineStr">
+        <is>
+          <t>2A 2ek_fry</t>
+        </is>
+      </c>
+      <c r="Q21" s="17" t="inlineStr">
+        <is>
+          <t>ek</t>
+        </is>
+      </c>
+      <c r="R21" s="17" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+      <c r="S21" s="18" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="T21" s="17" t="inlineStr">
+        <is>
+          <t>2d 2wz</t>
+        </is>
+      </c>
+      <c r="U21" s="17" t="inlineStr">
+        <is>
+          <t>j2</t>
+        </is>
+      </c>
+      <c r="V21" s="17" t="inlineStr">
+        <is>
+          <t>RT</t>
+        </is>
+      </c>
+      <c r="W21" s="18" t="inlineStr">
+        <is>
           <t>s2</t>
-        </is>
-      </c>
-      <c r="L21" s="17" t="inlineStr">
-        <is>
-          <t>5B 5gas_fry</t>
-        </is>
-      </c>
-      <c r="M21" s="17" t="inlineStr">
-        <is>
-          <t>gas</t>
-        </is>
-      </c>
-      <c r="N21" s="17" t="inlineStr">
-        <is>
-          <t>RT</t>
-        </is>
-      </c>
-      <c r="O21" s="18" t="inlineStr">
-        <is>
-          <t>s2</t>
-        </is>
-      </c>
-      <c r="P21" s="17" t="inlineStr">
-        <is>
-          <t>2A 2ek_fry</t>
-        </is>
-      </c>
-      <c r="Q21" s="17" t="inlineStr">
-        <is>
-          <t>ek</t>
-        </is>
-      </c>
-      <c r="R21" s="17" t="inlineStr">
-        <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="S21" s="18" t="inlineStr">
-        <is>
-          <t>s1</t>
-        </is>
-      </c>
-      <c r="T21" s="17" t="inlineStr">
-        <is>
-          <t>3C 3hot</t>
-        </is>
-      </c>
-      <c r="U21" s="17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V21" s="17" t="inlineStr">
-        <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="W21" s="18" t="inlineStr">
-        <is>
-          <t>st2</t>
         </is>
       </c>
     </row>
@@ -46948,102 +46948,102 @@
       </c>
       <c r="D22" s="17" t="inlineStr">
         <is>
+          <t>3L 3log</t>
+        </is>
+      </c>
+      <c r="E22" s="17" t="inlineStr">
+        <is>
+          <t>log</t>
+        </is>
+      </c>
+      <c r="F22" s="17" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="G22" s="18" t="inlineStr">
+        <is>
+          <t>s2</t>
+        </is>
+      </c>
+      <c r="H22" s="17" t="inlineStr">
+        <is>
+          <t>4A 4ra_log</t>
+        </is>
+      </c>
+      <c r="I22" s="17" t="inlineStr">
+        <is>
+          <t>ra</t>
+        </is>
+      </c>
+      <c r="J22" s="17" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="K22" s="18" t="inlineStr">
+        <is>
+          <t>s2</t>
+        </is>
+      </c>
+      <c r="L22" s="17" t="inlineStr">
+        <is>
           <t>5B 5gas_fry</t>
         </is>
       </c>
-      <c r="E22" s="17" t="inlineStr">
-        <is>
-          <t>fry</t>
-        </is>
-      </c>
-      <c r="F22" s="17" t="inlineStr">
+      <c r="M22" s="17" t="inlineStr">
+        <is>
+          <t>gas</t>
+        </is>
+      </c>
+      <c r="N22" s="17" t="inlineStr">
+        <is>
+          <t>RT</t>
+        </is>
+      </c>
+      <c r="O22" s="18" t="inlineStr">
+        <is>
+          <t>s2</t>
+        </is>
+      </c>
+      <c r="P22" s="17" t="inlineStr">
+        <is>
+          <t>4A 4ra_log</t>
+        </is>
+      </c>
+      <c r="Q22" s="17" t="inlineStr">
+        <is>
+          <t>log</t>
+        </is>
+      </c>
+      <c r="R22" s="17" t="inlineStr">
+        <is>
+          <t>JB</t>
+        </is>
+      </c>
+      <c r="S22" s="18" t="inlineStr">
+        <is>
+          <t>s2</t>
+        </is>
+      </c>
+      <c r="T22" s="17" t="inlineStr">
+        <is>
+          <t>3C 3hot</t>
+        </is>
+      </c>
+      <c r="U22" s="17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V22" s="17" t="inlineStr">
         <is>
           <t>RB</t>
         </is>
       </c>
-      <c r="G22" s="18" t="inlineStr">
-        <is>
-          <t>s1</t>
-        </is>
-      </c>
-      <c r="H22" s="17" t="inlineStr">
-        <is>
-          <t>5A 5ek_log</t>
-        </is>
-      </c>
-      <c r="I22" s="17" t="inlineStr">
-        <is>
-          <t>log</t>
-        </is>
-      </c>
-      <c r="J22" s="17" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
-      </c>
-      <c r="K22" s="18" t="inlineStr">
-        <is>
-          <t>s3</t>
-        </is>
-      </c>
-      <c r="L22" s="17" t="inlineStr">
-        <is>
-          <t>2C 2hot</t>
-        </is>
-      </c>
-      <c r="M22" s="17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N22" s="17" t="inlineStr">
-        <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="O22" s="18" t="inlineStr">
-        <is>
-          <t>s3</t>
-        </is>
-      </c>
-      <c r="P22" s="17" t="inlineStr">
-        <is>
-          <t>4A 4ra_log</t>
-        </is>
-      </c>
-      <c r="Q22" s="17" t="inlineStr">
-        <is>
-          <t>log</t>
-        </is>
-      </c>
-      <c r="R22" s="17" t="inlineStr">
-        <is>
-          <t>JB</t>
-        </is>
-      </c>
-      <c r="S22" s="18" t="inlineStr">
-        <is>
-          <t>s2</t>
-        </is>
-      </c>
-      <c r="T22" s="17" t="inlineStr">
-        <is>
-          <t>2d 2wz</t>
-        </is>
-      </c>
-      <c r="U22" s="17" t="inlineStr">
-        <is>
-          <t>j2</t>
-        </is>
-      </c>
-      <c r="V22" s="17" t="inlineStr">
-        <is>
-          <t>RT</t>
-        </is>
-      </c>
       <c r="W22" s="18" t="inlineStr">
         <is>
-          <t>s2</t>
+          <t>st2</t>
         </is>
       </c>
     </row>
@@ -47057,42 +47057,42 @@
       </c>
       <c r="D23" s="17" t="inlineStr">
         <is>
-          <t>3L 3log</t>
+          <t>5B 5gas_fry</t>
         </is>
       </c>
       <c r="E23" s="17" t="inlineStr">
         <is>
+          <t>fry</t>
+        </is>
+      </c>
+      <c r="F23" s="17" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+      <c r="G23" s="18" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="H23" s="17" t="inlineStr">
+        <is>
+          <t>5A 5ek_log</t>
+        </is>
+      </c>
+      <c r="I23" s="17" t="inlineStr">
+        <is>
           <t>log</t>
         </is>
       </c>
-      <c r="F23" s="17" t="inlineStr">
-        <is>
-          <t>MG</t>
-        </is>
-      </c>
-      <c r="G23" s="18" t="inlineStr">
-        <is>
-          <t>s2</t>
-        </is>
-      </c>
-      <c r="H23" s="17" t="inlineStr">
-        <is>
-          <t>3C 3hot</t>
-        </is>
-      </c>
-      <c r="I23" s="17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J23" s="17" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>MP</t>
         </is>
       </c>
       <c r="K23" s="18" t="inlineStr">
         <is>
-          <t>s1</t>
+          <t>s3</t>
         </is>
       </c>
       <c r="L23" s="17" t="inlineStr"/>
@@ -47197,82 +47197,82 @@
       </c>
       <c r="D25" s="15" t="inlineStr">
         <is>
-          <t>2A 2ek_fry</t>
+          <t>1B 1gas_log</t>
         </is>
       </c>
       <c r="E25" s="15" t="inlineStr">
         <is>
-          <t>ek</t>
+          <t>log</t>
         </is>
       </c>
       <c r="F25" s="15" t="inlineStr">
         <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="G25" s="16" t="inlineStr">
+        <is>
+          <t>s2</t>
+        </is>
+      </c>
+      <c r="H25" s="15" t="inlineStr">
+        <is>
+          <t>3L 3log</t>
+        </is>
+      </c>
+      <c r="I25" s="15" t="inlineStr">
+        <is>
+          <t>log</t>
+        </is>
+      </c>
+      <c r="J25" s="15" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="K25" s="16" t="inlineStr">
+        <is>
+          <t>s2</t>
+        </is>
+      </c>
+      <c r="L25" s="15" t="inlineStr">
+        <is>
+          <t>1B 1gas_log</t>
+        </is>
+      </c>
+      <c r="M25" s="15" t="inlineStr">
+        <is>
+          <t>gas</t>
+        </is>
+      </c>
+      <c r="N25" s="15" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="O25" s="16" t="inlineStr">
+        <is>
+          <t>s2</t>
+        </is>
+      </c>
+      <c r="P25" s="15" t="inlineStr">
+        <is>
+          <t>3B 3gas</t>
+        </is>
+      </c>
+      <c r="Q25" s="15" t="inlineStr">
+        <is>
+          <t>j2</t>
+        </is>
+      </c>
+      <c r="R25" s="15" t="inlineStr">
+        <is>
           <t>RB</t>
         </is>
       </c>
-      <c r="G25" s="16" t="inlineStr">
+      <c r="S25" s="16" t="inlineStr">
         <is>
           <t>s1</t>
-        </is>
-      </c>
-      <c r="H25" s="15" t="inlineStr">
-        <is>
-          <t>4B 4gas_fry</t>
-        </is>
-      </c>
-      <c r="I25" s="15" t="inlineStr">
-        <is>
-          <t>fry</t>
-        </is>
-      </c>
-      <c r="J25" s="15" t="inlineStr">
-        <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="K25" s="16" t="inlineStr">
-        <is>
-          <t>s1</t>
-        </is>
-      </c>
-      <c r="L25" s="15" t="inlineStr">
-        <is>
-          <t>1B 1gas_log</t>
-        </is>
-      </c>
-      <c r="M25" s="15" t="inlineStr">
-        <is>
-          <t>gas</t>
-        </is>
-      </c>
-      <c r="N25" s="15" t="inlineStr">
-        <is>
-          <t>MG</t>
-        </is>
-      </c>
-      <c r="O25" s="16" t="inlineStr">
-        <is>
-          <t>s2</t>
-        </is>
-      </c>
-      <c r="P25" s="15" t="inlineStr">
-        <is>
-          <t>5A 5ek_log</t>
-        </is>
-      </c>
-      <c r="Q25" s="15" t="inlineStr">
-        <is>
-          <t>ek</t>
-        </is>
-      </c>
-      <c r="R25" s="15" t="inlineStr">
-        <is>
-          <t>MG</t>
-        </is>
-      </c>
-      <c r="S25" s="16" t="inlineStr">
-        <is>
-          <t>s3</t>
         </is>
       </c>
       <c r="T25" s="15" t="inlineStr">
@@ -47306,42 +47306,42 @@
       </c>
       <c r="D26" s="15" t="inlineStr">
         <is>
-          <t>1B 1gas_log</t>
+          <t>2A 2ek_fry</t>
         </is>
       </c>
       <c r="E26" s="15" t="inlineStr">
         <is>
-          <t>log</t>
+          <t>ek</t>
         </is>
       </c>
       <c r="F26" s="15" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="G26" s="16" t="inlineStr">
         <is>
-          <t>s2</t>
+          <t>s1</t>
         </is>
       </c>
       <c r="H26" s="15" t="inlineStr">
         <is>
-          <t>3L 3log</t>
+          <t>4B 4gas_fry</t>
         </is>
       </c>
       <c r="I26" s="15" t="inlineStr">
         <is>
-          <t>log</t>
+          <t>fry</t>
         </is>
       </c>
       <c r="J26" s="15" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="K26" s="16" t="inlineStr">
         <is>
-          <t>s2</t>
+          <t>s1</t>
         </is>
       </c>
       <c r="L26" s="15" t="inlineStr"/>
@@ -47350,7 +47350,7 @@
       <c r="O26" s="16" t="inlineStr"/>
       <c r="P26" s="15" t="inlineStr">
         <is>
-          <t>3B 3gas</t>
+          <t>3e 3wz</t>
         </is>
       </c>
       <c r="Q26" s="15" t="inlineStr">
@@ -47360,12 +47360,12 @@
       </c>
       <c r="R26" s="15" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>RT</t>
         </is>
       </c>
       <c r="S26" s="16" t="inlineStr">
         <is>
-          <t>s1</t>
+          <t>s2</t>
         </is>
       </c>
       <c r="T26" s="15" t="inlineStr">
@@ -47411,22 +47411,22 @@
       <c r="O27" s="16" t="inlineStr"/>
       <c r="P27" s="15" t="inlineStr">
         <is>
-          <t>3e 3wz</t>
+          <t>5A 5ek_log</t>
         </is>
       </c>
       <c r="Q27" s="15" t="inlineStr">
         <is>
-          <t>j2</t>
+          <t>ek</t>
         </is>
       </c>
       <c r="R27" s="15" t="inlineStr">
         <is>
-          <t>RT</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="S27" s="16" t="inlineStr">
         <is>
-          <t>s2</t>
+          <t>s3</t>
         </is>
       </c>
       <c r="T27" s="15" t="inlineStr"/>
@@ -47446,22 +47446,22 @@
       </c>
       <c r="D28" s="17" t="inlineStr">
         <is>
-          <t>2A 2ek_fry</t>
+          <t>1B 1gas_log</t>
         </is>
       </c>
       <c r="E28" s="17" t="inlineStr">
         <is>
-          <t>ek</t>
+          <t>log</t>
         </is>
       </c>
       <c r="F28" s="17" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="G28" s="18" t="inlineStr">
         <is>
-          <t>s1</t>
+          <t>s2</t>
         </is>
       </c>
       <c r="H28" s="17" t="inlineStr">
@@ -47555,22 +47555,22 @@
       </c>
       <c r="D29" s="17" t="inlineStr">
         <is>
-          <t>1B 1gas_log</t>
+          <t>2A 2ek_fry</t>
         </is>
       </c>
       <c r="E29" s="17" t="inlineStr">
         <is>
-          <t>log</t>
+          <t>ek</t>
         </is>
       </c>
       <c r="F29" s="17" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="G29" s="18" t="inlineStr">
         <is>
-          <t>s2</t>
+          <t>s1</t>
         </is>
       </c>
       <c r="H29" s="17" t="inlineStr"/>
@@ -48979,21 +48979,21 @@
       </c>
       <c r="P9" s="15" t="inlineStr">
         <is>
-          <t>3B 3gas</t>
+          <t>2C 2hot</t>
         </is>
       </c>
       <c r="Q9" s="15" t="inlineStr">
         <is>
-          <t>j2</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="R9" s="15" t="inlineStr">
         <is>
-          <t>PK</t>
+          <t>ZM</t>
         </is>
       </c>
       <c r="S9" s="16" t="n">
-        <v>202</v>
+        <v>101</v>
       </c>
       <c r="T9" s="15" t="inlineStr"/>
       <c r="U9" s="15" t="inlineStr"/>
@@ -49022,21 +49022,21 @@
       <c r="O10" s="16" t="inlineStr"/>
       <c r="P10" s="15" t="inlineStr">
         <is>
-          <t>2C 2hot</t>
+          <t>3B 3gas</t>
         </is>
       </c>
       <c r="Q10" s="15" t="inlineStr">
         <is>
-          <t>hot</t>
+          <t>j2</t>
         </is>
       </c>
       <c r="R10" s="15" t="inlineStr">
         <is>
-          <t>ZM</t>
+          <t>PK</t>
         </is>
       </c>
       <c r="S10" s="16" t="n">
-        <v>101</v>
+        <v>202</v>
       </c>
       <c r="T10" s="15" t="inlineStr"/>
       <c r="U10" s="15" t="inlineStr"/>
@@ -49095,7 +49095,7 @@
       </c>
       <c r="P11" s="17" t="inlineStr">
         <is>
-          <t>3A 3ra_fry</t>
+          <t>2L 2log</t>
         </is>
       </c>
       <c r="Q11" s="17" t="inlineStr">
@@ -49105,15 +49105,15 @@
       </c>
       <c r="R11" s="17" t="inlineStr">
         <is>
-          <t>PK</t>
+          <t>ZM</t>
         </is>
       </c>
       <c r="S11" s="18" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="T11" s="17" t="inlineStr">
         <is>
-          <t>3C 3hot</t>
+          <t>2L 2log</t>
         </is>
       </c>
       <c r="U11" s="17" t="inlineStr">
@@ -49123,11 +49123,11 @@
       </c>
       <c r="V11" s="17" t="inlineStr">
         <is>
-          <t>PK</t>
+          <t>ZM</t>
         </is>
       </c>
       <c r="W11" s="18" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" ht="14.3" customHeight="1">
@@ -49152,7 +49152,7 @@
       <c r="O12" s="18" t="inlineStr"/>
       <c r="P12" s="17" t="inlineStr">
         <is>
-          <t>2L 2log</t>
+          <t>3A 3ra_fry</t>
         </is>
       </c>
       <c r="Q12" s="17" t="inlineStr">
@@ -49162,15 +49162,15 @@
       </c>
       <c r="R12" s="17" t="inlineStr">
         <is>
-          <t>ZM</t>
+          <t>PK</t>
         </is>
       </c>
       <c r="S12" s="18" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="T12" s="17" t="inlineStr">
         <is>
-          <t>2L 2log</t>
+          <t>3C 3hot</t>
         </is>
       </c>
       <c r="U12" s="17" t="inlineStr">
@@ -49180,11 +49180,11 @@
       </c>
       <c r="V12" s="17" t="inlineStr">
         <is>
-          <t>ZM</t>
+          <t>PK</t>
         </is>
       </c>
       <c r="W12" s="18" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" ht="14.3" customHeight="1">
@@ -50758,7 +50758,7 @@
       </c>
       <c r="D11" s="17" t="inlineStr">
         <is>
-          <t>2C 2hot</t>
+          <t>1d 1wz</t>
         </is>
       </c>
       <c r="E11" s="17" t="inlineStr">
@@ -50768,11 +50768,11 @@
       </c>
       <c r="F11" s="17" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>PI</t>
         </is>
       </c>
       <c r="G11" s="18" t="n">
-        <v>203</v>
+        <v>1</v>
       </c>
       <c r="H11" s="17" t="inlineStr"/>
       <c r="I11" s="17" t="inlineStr"/>
@@ -50801,7 +50801,7 @@
       </c>
       <c r="D12" s="17" t="inlineStr">
         <is>
-          <t>1d 1wz</t>
+          <t>2C 2hot</t>
         </is>
       </c>
       <c r="E12" s="17" t="inlineStr">
@@ -50811,11 +50811,11 @@
       </c>
       <c r="F12" s="17" t="inlineStr">
         <is>
-          <t>PI</t>
+          <t>PT</t>
         </is>
       </c>
       <c r="G12" s="18" t="n">
-        <v>1</v>
+        <v>203</v>
       </c>
       <c r="H12" s="17" t="inlineStr"/>
       <c r="I12" s="17" t="inlineStr"/>
@@ -50905,7 +50905,7 @@
       </c>
       <c r="D14" s="17" t="inlineStr">
         <is>
-          <t>4B 4gas_fry</t>
+          <t>3L 3log</t>
         </is>
       </c>
       <c r="E14" s="17" t="inlineStr">
@@ -50915,11 +50915,11 @@
       </c>
       <c r="F14" s="17" t="inlineStr">
         <is>
-          <t>LU</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="G14" s="18" t="n">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="H14" s="17" t="inlineStr">
         <is>
@@ -50976,7 +50976,7 @@
       </c>
       <c r="D15" s="19" t="inlineStr">
         <is>
-          <t>3L 3log</t>
+          <t>4B 4gas_fry</t>
         </is>
       </c>
       <c r="E15" s="19" t="inlineStr">
@@ -50986,11 +50986,11 @@
       </c>
       <c r="F15" s="19" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>LU</t>
         </is>
       </c>
       <c r="G15" s="20" t="n">
-        <v>110</v>
+        <v>1</v>
       </c>
       <c r="H15" s="19" t="inlineStr"/>
       <c r="I15" s="19" t="inlineStr"/>
